--- a/11  Linear Regression Backword/11 Performance Evaluators.xlsx
+++ b/11  Linear Regression Backword/11 Performance Evaluators.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alimul.rajee\Desktop\Performance Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prosanto\Desktop\Demo\11  Linear Regression Backword\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE8D214-24CA-4BFD-803E-25C303443777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Our Algo" sheetId="2" r:id="rId1"/>
     <sheet name="Original" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -105,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -458,11 +457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7735BF1B-88B9-43A6-8963-10708B0921CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:R127"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1974,17 +1973,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="K111" sqref="K111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="9.140625" style="5"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="8" max="9" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="5:18" ht="88.5" x14ac:dyDescent="0.25">
@@ -2029,33 +2029,75 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
+      <c r="G8">
+        <v>37.69</v>
+      </c>
+      <c r="H8">
+        <v>19.38</v>
+      </c>
+      <c r="I8">
+        <v>33.700000000000003</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E9" s="6"/>
       <c r="F9" t="s">
         <v>12</v>
       </c>
+      <c r="G9">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="H9">
+        <v>0.8871</v>
+      </c>
+      <c r="I9">
+        <v>0.78100000000000003</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
       <c r="F10" t="s">
         <v>13</v>
       </c>
+      <c r="G10">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="H10">
+        <v>5.0099999999999999E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.1171</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
       <c r="F11" t="s">
         <v>14</v>
       </c>
+      <c r="G11">
+        <v>0.16389999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.22389999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.27100000000000002</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
       <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="4">
+        <v>0.172873</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.11318400000000001</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.26449600000000001</v>
+      </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2071,9 +2113,15 @@
       <c r="F13" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="G13" s="4">
+        <v>0.34829300000000002</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.47578100000000001</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.57598099999999997</v>
+      </c>
       <c r="J13" s="4"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
@@ -2089,24 +2137,60 @@
       <c r="F14" t="s">
         <v>17</v>
       </c>
+      <c r="G14">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="H14">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I14">
+        <v>0.85899999999999999</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
       <c r="F15" t="s">
         <v>18</v>
       </c>
+      <c r="G15">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H15">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I15">
+        <v>0.85399999999999998</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
       <c r="F16" t="s">
         <v>19</v>
       </c>
+      <c r="G16">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H16">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I16">
+        <v>0.85499999999999998</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
       <c r="F17" t="s">
         <v>21</v>
       </c>
+      <c r="G17">
+        <v>0.996</v>
+      </c>
+      <c r="H17">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="I17">
+        <v>0.94899999999999995</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18" s="6">
@@ -2114,6 +2198,15 @@
       </c>
       <c r="F18" t="s">
         <v>11</v>
+      </c>
+      <c r="G18">
+        <v>2.14</v>
+      </c>
+      <c r="H18">
+        <v>15.67</v>
+      </c>
+      <c r="I18">
+        <v>34.869999999999997</v>
       </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
@@ -2121,27 +2214,60 @@
       <c r="F19" t="s">
         <v>12</v>
       </c>
+      <c r="G19">
+        <v>0.58950000000000002</v>
+      </c>
+      <c r="H19">
+        <v>0.88649999999999995</v>
+      </c>
+      <c r="I19">
+        <v>0.7873</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20" s="6"/>
       <c r="F20" t="s">
         <v>13</v>
       </c>
+      <c r="G20">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="H20">
+        <v>5.04E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.11459999999999999</v>
+      </c>
     </row>
     <row r="21" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
       <c r="F21" t="s">
         <v>14</v>
       </c>
+      <c r="G21">
+        <v>0.34179999999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.26790000000000003</v>
+      </c>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
       <c r="F22" t="s">
         <v>15</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
+      <c r="G22" s="4">
+        <v>0.50741899999999995</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.11362700000000001</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.25822899999999999</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -2157,9 +2283,15 @@
       <c r="F23" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
+      <c r="G23" s="4">
+        <v>0.72562899999999997</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.47671200000000002</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.56881000000000004</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -2175,24 +2307,60 @@
       <c r="F24" t="s">
         <v>17</v>
       </c>
+      <c r="G24">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.93</v>
+      </c>
+      <c r="I24">
+        <v>0.86299999999999999</v>
+      </c>
     </row>
     <row r="25" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
       <c r="F25" t="s">
         <v>18</v>
       </c>
+      <c r="G25">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="H25">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I25">
+        <v>0.85799999999999998</v>
+      </c>
     </row>
     <row r="26" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E26" s="6"/>
       <c r="F26" t="s">
         <v>19</v>
       </c>
+      <c r="G26">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="H26">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I26">
+        <v>0.85899999999999999</v>
+      </c>
     </row>
     <row r="27" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
       <c r="F27" t="s">
         <v>21</v>
       </c>
+      <c r="G27">
+        <v>0.875</v>
+      </c>
+      <c r="H27">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I27">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="28" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E28" s="6">
@@ -2200,6 +2368,15 @@
       </c>
       <c r="F28" t="s">
         <v>11</v>
+      </c>
+      <c r="G28">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="H28">
+        <v>15.67</v>
+      </c>
+      <c r="I28">
+        <v>35.44</v>
       </c>
     </row>
     <row r="29" spans="5:18" x14ac:dyDescent="0.25">
@@ -2207,27 +2384,60 @@
       <c r="F29" t="s">
         <v>12</v>
       </c>
+      <c r="G29">
+        <v>0.95189999999999997</v>
+      </c>
+      <c r="H29">
+        <v>0.88770000000000004</v>
+      </c>
+      <c r="I29">
+        <v>0.78010000000000002</v>
+      </c>
     </row>
     <row r="30" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
       <c r="F30" t="s">
         <v>13</v>
       </c>
+      <c r="G30">
+        <v>7.6399999999999996E-2</v>
+      </c>
+      <c r="H30">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="I30">
+        <v>0.1177</v>
+      </c>
     </row>
     <row r="31" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
       <c r="F31" t="s">
         <v>14</v>
       </c>
+      <c r="G31">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="H31">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.2722</v>
+      </c>
     </row>
     <row r="32" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
       <c r="F32" t="s">
         <v>15</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
+      <c r="G32" s="4">
+        <v>0.17233200000000001</v>
+      </c>
+      <c r="H32" s="4">
+        <v>0.112328</v>
+      </c>
+      <c r="I32" s="4">
+        <v>0.26567499999999999</v>
+      </c>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
@@ -2243,9 +2453,15 @@
       <c r="F33" t="s">
         <v>16</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
+      <c r="G33" s="4">
+        <v>0.34715600000000002</v>
+      </c>
+      <c r="H33" s="4">
+        <v>0.47397800000000001</v>
+      </c>
+      <c r="I33" s="4">
+        <v>0.57825400000000005</v>
+      </c>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
@@ -2261,24 +2477,60 @@
       <c r="F34" t="s">
         <v>17</v>
       </c>
+      <c r="G34">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="H34">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I34">
+        <v>0.85799999999999998</v>
+      </c>
     </row>
     <row r="35" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E35" s="6"/>
       <c r="F35" t="s">
         <v>18</v>
       </c>
+      <c r="G35">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H35">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I35">
+        <v>0.85399999999999998</v>
+      </c>
     </row>
     <row r="36" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
       <c r="F36" t="s">
         <v>19</v>
       </c>
+      <c r="G36">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="H36">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I36">
+        <v>0.85399999999999998</v>
+      </c>
     </row>
     <row r="37" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
       <c r="F37" t="s">
         <v>21</v>
       </c>
+      <c r="G37">
+        <v>0.996</v>
+      </c>
+      <c r="H37">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I37">
+        <v>0.94799999999999995</v>
+      </c>
     </row>
     <row r="38" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E38" s="6">
@@ -2286,6 +2538,15 @@
       </c>
       <c r="F38" t="s">
         <v>11</v>
+      </c>
+      <c r="G38">
+        <v>29.71</v>
+      </c>
+      <c r="H38">
+        <v>11.95</v>
+      </c>
+      <c r="I38">
+        <v>25.53</v>
       </c>
     </row>
     <row r="39" spans="5:18" x14ac:dyDescent="0.25">
@@ -2293,27 +2554,60 @@
       <c r="F39" t="s">
         <v>12</v>
       </c>
+      <c r="G39">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="H39">
+        <v>0.88729999999999998</v>
+      </c>
+      <c r="I39">
+        <v>0.77859999999999996</v>
+      </c>
     </row>
     <row r="40" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E40" s="6"/>
       <c r="F40" t="s">
         <v>13</v>
       </c>
+      <c r="G40">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="H40">
+        <v>4.9799999999999997E-2</v>
+      </c>
+      <c r="I40">
+        <v>0.1186</v>
+      </c>
     </row>
     <row r="41" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
       <c r="F41" t="s">
         <v>14</v>
       </c>
+      <c r="G41">
+        <v>0.1658</v>
+      </c>
+      <c r="H41">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="I41">
+        <v>0.27239999999999998</v>
+      </c>
     </row>
     <row r="42" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
       <c r="F42" t="s">
         <v>15</v>
       </c>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
+      <c r="G42" s="4">
+        <v>0.17228299999999999</v>
+      </c>
+      <c r="H42" s="4">
+        <v>0.11267099999999999</v>
+      </c>
+      <c r="I42" s="4">
+        <v>0.26858599999999999</v>
+      </c>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
@@ -2329,9 +2623,15 @@
       <c r="F43" t="s">
         <v>16</v>
       </c>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
+      <c r="G43" s="4">
+        <v>0.35294399999999998</v>
+      </c>
+      <c r="H43" s="4">
+        <v>0.47470299999999999</v>
+      </c>
+      <c r="I43" s="4">
+        <v>0.57975200000000005</v>
+      </c>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
@@ -2347,24 +2647,60 @@
       <c r="F44" t="s">
         <v>17</v>
       </c>
+      <c r="G44">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="H44">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I44">
+        <v>0.85799999999999998</v>
+      </c>
     </row>
     <row r="45" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
       <c r="F45" t="s">
         <v>18</v>
       </c>
+      <c r="G45">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H45">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I45">
+        <v>0.85299999999999998</v>
+      </c>
     </row>
     <row r="46" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E46" s="6"/>
       <c r="F46" t="s">
         <v>19</v>
       </c>
+      <c r="G46">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H46">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="I46">
+        <v>0.85399999999999998</v>
+      </c>
     </row>
     <row r="47" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E47" s="6"/>
       <c r="F47" t="s">
         <v>21</v>
       </c>
+      <c r="G47">
+        <v>0.995</v>
+      </c>
+      <c r="H47">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="I47">
+        <v>0.94499999999999995</v>
+      </c>
     </row>
     <row r="48" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E48" s="6">
@@ -2372,6 +2708,15 @@
       </c>
       <c r="F48" t="s">
         <v>11</v>
+      </c>
+      <c r="G48">
+        <v>30.89</v>
+      </c>
+      <c r="H48">
+        <v>5.65</v>
+      </c>
+      <c r="I48">
+        <v>14.52</v>
       </c>
     </row>
     <row r="49" spans="5:18" x14ac:dyDescent="0.25">
@@ -2379,27 +2724,60 @@
       <c r="F49" t="s">
         <v>12</v>
       </c>
+      <c r="G49">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="H49">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="I49">
+        <v>0.77380000000000004</v>
+      </c>
     </row>
     <row r="50" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
       <c r="F50" t="s">
         <v>13</v>
       </c>
+      <c r="G50">
+        <v>7.85E-2</v>
+      </c>
+      <c r="H50">
+        <v>5.0799999999999998E-2</v>
+      </c>
+      <c r="I50">
+        <v>0.1197</v>
+      </c>
     </row>
     <row r="51" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E51" s="6"/>
       <c r="F51" t="s">
         <v>14</v>
       </c>
+      <c r="G51">
+        <v>0.16320000000000001</v>
+      </c>
+      <c r="H51">
+        <v>0.2253</v>
+      </c>
+      <c r="I51">
+        <v>0.2752</v>
+      </c>
     </row>
     <row r="52" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E52" s="6"/>
       <c r="F52" t="s">
         <v>15</v>
       </c>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
+      <c r="G52" s="4">
+        <v>0.178536</v>
+      </c>
+      <c r="H52" s="4">
+        <v>0.11547300000000001</v>
+      </c>
+      <c r="I52" s="4">
+        <v>0.27243800000000001</v>
+      </c>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
@@ -2415,9 +2793,15 @@
       <c r="F53" t="s">
         <v>16</v>
       </c>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
+      <c r="G53" s="4">
+        <v>0.34805199999999997</v>
+      </c>
+      <c r="H53" s="4">
+        <v>0.48056900000000002</v>
+      </c>
+      <c r="I53" s="4">
+        <v>0.587117</v>
+      </c>
       <c r="J53" s="4"/>
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
@@ -2433,24 +2817,60 @@
       <c r="F54" t="s">
         <v>17</v>
       </c>
+      <c r="G54">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="H54">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I54">
+        <v>0.85599999999999998</v>
+      </c>
     </row>
     <row r="55" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E55" s="6"/>
       <c r="F55" t="s">
         <v>18</v>
       </c>
+      <c r="G55">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H55">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I55">
+        <v>0.85099999999999998</v>
+      </c>
     </row>
     <row r="56" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E56" s="6"/>
       <c r="F56" t="s">
         <v>19</v>
       </c>
+      <c r="G56">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H56">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="I56">
+        <v>0.85099999999999998</v>
+      </c>
     </row>
     <row r="57" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E57" s="6"/>
       <c r="F57" t="s">
         <v>21</v>
       </c>
+      <c r="G57">
+        <v>0.996</v>
+      </c>
+      <c r="H57">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I57">
+        <v>0.84399999999999997</v>
+      </c>
     </row>
     <row r="58" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E58" s="6">
@@ -2458,6 +2878,15 @@
       </c>
       <c r="F58" t="s">
         <v>11</v>
+      </c>
+      <c r="G58">
+        <v>29.41</v>
+      </c>
+      <c r="H58">
+        <v>11.28</v>
+      </c>
+      <c r="I58">
+        <v>25.02</v>
       </c>
     </row>
     <row r="59" spans="5:18" x14ac:dyDescent="0.25">
@@ -2465,27 +2894,60 @@
       <c r="F59" t="s">
         <v>12</v>
       </c>
+      <c r="G59">
+        <v>0.95420000000000005</v>
+      </c>
+      <c r="H59">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="I59">
+        <v>0.76770000000000005</v>
+      </c>
     </row>
     <row r="60" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E60" s="6"/>
       <c r="F60" t="s">
         <v>13</v>
       </c>
+      <c r="G60">
+        <v>7.8899999999999998E-2</v>
+      </c>
+      <c r="H60">
+        <v>5.04E-2</v>
+      </c>
+      <c r="I60">
+        <v>0.122</v>
+      </c>
     </row>
     <row r="61" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E61" s="6"/>
       <c r="F61" t="s">
         <v>14</v>
       </c>
+      <c r="G61">
+        <v>0.1646</v>
+      </c>
+      <c r="H61">
+        <v>0.22450000000000001</v>
+      </c>
+      <c r="I61">
+        <v>0.2777</v>
+      </c>
     </row>
     <row r="62" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E62" s="6"/>
       <c r="F62" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
+      <c r="G62" s="4">
+        <v>0.180895</v>
+      </c>
+      <c r="H62" s="4">
+        <v>0.115577</v>
+      </c>
+      <c r="I62" s="4">
+        <v>0.279671</v>
+      </c>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
       <c r="L62" s="4"/>
@@ -2501,9 +2963,15 @@
       <c r="F63" t="s">
         <v>16</v>
       </c>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
+      <c r="G63" s="4">
+        <v>0.35245799999999999</v>
+      </c>
+      <c r="H63" s="4">
+        <v>0.48078500000000002</v>
+      </c>
+      <c r="I63" s="4">
+        <v>0.59476499999999999</v>
+      </c>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
@@ -2519,24 +2987,60 @@
       <c r="F64" t="s">
         <v>17</v>
       </c>
+      <c r="G64">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H64">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I64">
+        <v>0.85299999999999998</v>
+      </c>
     </row>
     <row r="65" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E65" s="6"/>
       <c r="F65" t="s">
         <v>18</v>
       </c>
+      <c r="G65">
+        <v>0.97</v>
+      </c>
+      <c r="H65">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I65">
+        <v>0.84799999999999998</v>
+      </c>
     </row>
     <row r="66" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E66" s="6"/>
       <c r="F66" t="s">
         <v>19</v>
       </c>
+      <c r="G66">
+        <v>0.97</v>
+      </c>
+      <c r="H66">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="I66">
+        <v>0.84899999999999998</v>
+      </c>
     </row>
     <row r="67" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E67" s="6"/>
       <c r="F67" t="s">
         <v>21</v>
       </c>
+      <c r="G67">
+        <v>0.996</v>
+      </c>
+      <c r="H67">
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="I67">
+        <v>0.94099999999999995</v>
+      </c>
     </row>
     <row r="68" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E68" s="6">
@@ -2544,6 +3048,15 @@
       </c>
       <c r="F68" t="s">
         <v>11</v>
+      </c>
+      <c r="G68">
+        <v>30.14</v>
+      </c>
+      <c r="H68">
+        <v>6.14</v>
+      </c>
+      <c r="I68">
+        <v>12.63</v>
       </c>
     </row>
     <row r="69" spans="5:18" x14ac:dyDescent="0.25">
@@ -2551,27 +3064,60 @@
       <c r="F69" t="s">
         <v>12</v>
       </c>
+      <c r="G69">
+        <v>0.9526</v>
+      </c>
+      <c r="H69">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="I69">
+        <v>0.76800000000000002</v>
+      </c>
     </row>
     <row r="70" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E70" s="6"/>
       <c r="F70" t="s">
         <v>13</v>
       </c>
+      <c r="G70">
+        <v>8.0299999999999996E-2</v>
+      </c>
+      <c r="H70">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="I70">
+        <v>0.1216</v>
+      </c>
     </row>
     <row r="71" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E71" s="6"/>
       <c r="F71" t="s">
         <v>14</v>
       </c>
+      <c r="G71">
+        <v>0.16669999999999999</v>
+      </c>
+      <c r="H71">
+        <v>0.2281</v>
+      </c>
+      <c r="I71">
+        <v>0.27729999999999999</v>
+      </c>
     </row>
     <row r="72" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E72" s="6"/>
       <c r="F72" t="s">
         <v>15</v>
       </c>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
+      <c r="G72" s="4">
+        <v>0.18357399999999999</v>
+      </c>
+      <c r="H72" s="4">
+        <v>0.11888799999999999</v>
+      </c>
+      <c r="I72" s="4">
+        <v>0.27785500000000002</v>
+      </c>
       <c r="J72" s="4"/>
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
@@ -2587,9 +3133,15 @@
       <c r="F73" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="4"/>
-      <c r="H73" s="4"/>
-      <c r="I73" s="4"/>
+      <c r="G73" s="4">
+        <v>0.35636099999999998</v>
+      </c>
+      <c r="H73" s="4">
+        <v>0.487622</v>
+      </c>
+      <c r="I73" s="4">
+        <v>0.59300699999999995</v>
+      </c>
       <c r="J73" s="4"/>
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
@@ -2605,24 +3157,60 @@
       <c r="F74" t="s">
         <v>17</v>
       </c>
+      <c r="G74">
+        <v>0.97</v>
+      </c>
+      <c r="H74">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="I74">
+        <v>0.85199999999999998</v>
+      </c>
     </row>
     <row r="75" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E75" s="6"/>
       <c r="F75" t="s">
         <v>18</v>
       </c>
+      <c r="G75">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="H75">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I75">
+        <v>0.84799999999999998</v>
+      </c>
     </row>
     <row r="76" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E76" s="6"/>
       <c r="F76" t="s">
         <v>19</v>
       </c>
+      <c r="G76">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="H76">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="I76">
+        <v>0.84799999999999998</v>
+      </c>
     </row>
     <row r="77" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E77" s="6"/>
       <c r="F77" t="s">
         <v>21</v>
       </c>
+      <c r="G77">
+        <v>0.996</v>
+      </c>
+      <c r="H77">
+        <v>0.93899999999999995</v>
+      </c>
+      <c r="I77">
+        <v>0.94</v>
+      </c>
     </row>
     <row r="78" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E78" s="6">
@@ -2630,6 +3218,15 @@
       </c>
       <c r="F78" t="s">
         <v>11</v>
+      </c>
+      <c r="G78">
+        <v>28.27</v>
+      </c>
+      <c r="H78">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="I78">
+        <v>21.74</v>
       </c>
     </row>
     <row r="79" spans="5:18" x14ac:dyDescent="0.25">
@@ -2637,27 +3234,60 @@
       <c r="F79" t="s">
         <v>12</v>
       </c>
+      <c r="G79">
+        <v>0.95279999999999998</v>
+      </c>
+      <c r="H79">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="I79">
+        <v>0.7601</v>
+      </c>
     </row>
     <row r="80" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E80" s="6"/>
       <c r="F80" t="s">
         <v>13</v>
       </c>
+      <c r="G80">
+        <v>8.09E-2</v>
+      </c>
+      <c r="H80">
+        <v>5.16E-2</v>
+      </c>
+      <c r="I80">
+        <v>0.1246</v>
+      </c>
     </row>
     <row r="81" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E81" s="6"/>
       <c r="F81" t="s">
         <v>14</v>
       </c>
+      <c r="G81">
+        <v>0.1671</v>
+      </c>
+      <c r="H81">
+        <v>0.2271</v>
+      </c>
+      <c r="I81">
+        <v>0.28039999999999998</v>
+      </c>
     </row>
     <row r="82" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E82" s="6"/>
       <c r="F82" t="s">
         <v>15</v>
       </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
+      <c r="G82" s="4">
+        <v>0.18584700000000001</v>
+      </c>
+      <c r="H82" s="4">
+        <v>0.118521</v>
+      </c>
+      <c r="I82" s="4">
+        <v>0.28637400000000002</v>
+      </c>
       <c r="J82" s="4"/>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
@@ -2673,9 +3303,15 @@
       <c r="F83" t="s">
         <v>16</v>
       </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4"/>
+      <c r="G83" s="4">
+        <v>0.35829</v>
+      </c>
+      <c r="H83" s="4">
+        <v>0.486869</v>
+      </c>
+      <c r="I83" s="4">
+        <v>0.60109699999999999</v>
+      </c>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
@@ -2691,24 +3327,60 @@
       <c r="F84" t="s">
         <v>17</v>
       </c>
+      <c r="G84">
+        <v>0.97</v>
+      </c>
+      <c r="H84">
+        <v>0.93</v>
+      </c>
+      <c r="I84">
+        <v>0.84799999999999998</v>
+      </c>
     </row>
     <row r="85" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E85" s="6"/>
       <c r="F85" t="s">
         <v>18</v>
       </c>
+      <c r="G85">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="H85">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="I85">
+        <v>0.84399999999999997</v>
+      </c>
     </row>
     <row r="86" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E86" s="6"/>
       <c r="F86" t="s">
         <v>19</v>
       </c>
+      <c r="G86">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="H86">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I86">
+        <v>0.84399999999999997</v>
+      </c>
     </row>
     <row r="87" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E87" s="6"/>
       <c r="F87" t="s">
         <v>21</v>
       </c>
+      <c r="G87">
+        <v>0.996</v>
+      </c>
+      <c r="H87">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="I87">
+        <v>0.93799999999999994</v>
+      </c>
     </row>
     <row r="88" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E88" s="6">
@@ -2716,6 +3388,15 @@
       </c>
       <c r="F88" t="s">
         <v>11</v>
+      </c>
+      <c r="G88">
+        <v>28.09</v>
+      </c>
+      <c r="H88">
+        <v>10.19</v>
+      </c>
+      <c r="I88">
+        <v>20.66</v>
       </c>
     </row>
     <row r="89" spans="5:18" x14ac:dyDescent="0.25">
@@ -2723,27 +3404,60 @@
       <c r="F89" t="s">
         <v>12</v>
       </c>
+      <c r="G89">
+        <v>0.94550000000000001</v>
+      </c>
+      <c r="H89">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="I89">
+        <v>0.74950000000000006</v>
+      </c>
     </row>
     <row r="90" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E90" s="6"/>
       <c r="F90" t="s">
         <v>13</v>
       </c>
+      <c r="G90">
+        <v>8.1199999999999994E-2</v>
+      </c>
+      <c r="H90">
+        <v>5.28E-2</v>
+      </c>
+      <c r="I90">
+        <v>0.1303</v>
+      </c>
     </row>
     <row r="91" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E91" s="6"/>
       <c r="F91" t="s">
         <v>14</v>
       </c>
+      <c r="G91">
+        <v>0.1709</v>
+      </c>
+      <c r="H91">
+        <v>0.22969999999999999</v>
+      </c>
+      <c r="I91">
+        <v>0.28589999999999999</v>
+      </c>
     </row>
     <row r="92" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E92" s="6"/>
       <c r="F92" t="s">
         <v>15</v>
       </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
+      <c r="G92" s="4">
+        <v>0.18596499999999999</v>
+      </c>
+      <c r="H92" s="4">
+        <v>0.120909</v>
+      </c>
+      <c r="I92" s="4">
+        <v>0.29867100000000002</v>
+      </c>
       <c r="J92" s="4"/>
       <c r="K92" s="4"/>
       <c r="L92" s="4"/>
@@ -2759,9 +3473,15 @@
       <c r="F93" t="s">
         <v>16</v>
       </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
+      <c r="G93" s="4">
+        <v>0.36589100000000002</v>
+      </c>
+      <c r="H93" s="4">
+        <v>0.49174899999999999</v>
+      </c>
+      <c r="I93" s="4">
+        <v>0.61202699999999999</v>
+      </c>
       <c r="J93" s="4"/>
       <c r="K93" s="4"/>
       <c r="L93" s="4"/>
@@ -2777,24 +3497,60 @@
       <c r="F94" t="s">
         <v>17</v>
       </c>
+      <c r="G94">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H94">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="I94">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="95" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E95" s="6"/>
       <c r="F95" t="s">
         <v>18</v>
       </c>
+      <c r="G95">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H95">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="I95">
+        <v>0.83599999999999997</v>
+      </c>
     </row>
     <row r="96" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E96" s="6"/>
       <c r="F96" t="s">
         <v>19</v>
       </c>
+      <c r="G96">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H96">
+        <v>0.92</v>
+      </c>
+      <c r="I96">
+        <v>0.83699999999999997</v>
+      </c>
     </row>
     <row r="97" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E97" s="6"/>
       <c r="F97" t="s">
         <v>21</v>
       </c>
+      <c r="G97">
+        <v>0.995</v>
+      </c>
+      <c r="H97">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="I97">
+        <v>0.93400000000000005</v>
+      </c>
     </row>
     <row r="98" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E98" s="6">
@@ -2802,6 +3558,15 @@
       </c>
       <c r="F98" t="s">
         <v>11</v>
+      </c>
+      <c r="G98">
+        <v>25.57</v>
+      </c>
+      <c r="H98">
+        <v>9.91</v>
+      </c>
+      <c r="I98">
+        <v>24.06</v>
       </c>
     </row>
     <row r="99" spans="5:18" x14ac:dyDescent="0.25">
@@ -2809,27 +3574,60 @@
       <c r="F99" t="s">
         <v>12</v>
       </c>
+      <c r="G99">
+        <v>0.94489999999999996</v>
+      </c>
+      <c r="H99">
+        <v>0.88070000000000004</v>
+      </c>
+      <c r="I99">
+        <v>0.75239999999999996</v>
+      </c>
     </row>
     <row r="100" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E100" s="6"/>
       <c r="F100" t="s">
         <v>13</v>
       </c>
+      <c r="G100">
+        <v>8.0399999999999999E-2</v>
+      </c>
+      <c r="H100">
+        <v>5.1900000000000002E-2</v>
+      </c>
+      <c r="I100">
+        <v>0.1293</v>
+      </c>
     </row>
     <row r="101" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E101" s="6"/>
       <c r="F101" t="s">
         <v>14</v>
       </c>
+      <c r="G101">
+        <v>0.17050000000000001</v>
+      </c>
+      <c r="H101">
+        <v>0.2278</v>
+      </c>
+      <c r="I101">
+        <v>0.28449999999999998</v>
+      </c>
     </row>
     <row r="102" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E102" s="6"/>
       <c r="F102" t="s">
         <v>15</v>
       </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
-      <c r="I102" s="4"/>
+      <c r="G102" s="4">
+        <v>0.18461900000000001</v>
+      </c>
+      <c r="H102" s="4">
+        <v>0.119076</v>
+      </c>
+      <c r="I102" s="4">
+        <v>0.296732</v>
+      </c>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
@@ -2845,9 +3643,15 @@
       <c r="F103" t="s">
         <v>16</v>
       </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
+      <c r="G103" s="4">
+        <v>0.36532399999999998</v>
+      </c>
+      <c r="H103" s="4">
+        <v>0.48800700000000002</v>
+      </c>
+      <c r="I103" s="4">
+        <v>0.60946400000000001</v>
+      </c>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
@@ -2863,24 +3667,60 @@
       <c r="F104" t="s">
         <v>17</v>
       </c>
+      <c r="G104">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H104">
+        <v>0.93</v>
+      </c>
+      <c r="I104">
+        <v>0.84399999999999997</v>
+      </c>
     </row>
     <row r="105" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E105" s="6"/>
       <c r="F105" t="s">
         <v>18</v>
       </c>
+      <c r="G105">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H105">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="I105">
+        <v>0.83899999999999997</v>
+      </c>
     </row>
     <row r="106" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E106" s="6"/>
       <c r="F106" t="s">
         <v>19</v>
       </c>
+      <c r="G106">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="H106">
+        <v>0.92100000000000004</v>
+      </c>
+      <c r="I106">
+        <v>0.83899999999999997</v>
+      </c>
     </row>
     <row r="107" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E107" s="6"/>
       <c r="F107" t="s">
         <v>21</v>
       </c>
+      <c r="G107">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H107">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="I107">
+        <v>0.93300000000000005</v>
+      </c>
     </row>
     <row r="108" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E108" s="6">
@@ -2888,6 +3728,15 @@
       </c>
       <c r="F108" t="s">
         <v>11</v>
+      </c>
+      <c r="G108">
+        <v>27.16</v>
+      </c>
+      <c r="H108">
+        <v>4.91</v>
+      </c>
+      <c r="I108">
+        <v>12.08</v>
       </c>
     </row>
     <row r="109" spans="5:18" x14ac:dyDescent="0.25">
@@ -2895,27 +3744,60 @@
       <c r="F109" t="s">
         <v>12</v>
       </c>
+      <c r="G109">
+        <v>0.94750000000000001</v>
+      </c>
+      <c r="H109">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="I109">
+        <v>0.74560000000000004</v>
+      </c>
     </row>
     <row r="110" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E110" s="6"/>
       <c r="F110" t="s">
         <v>13</v>
       </c>
+      <c r="G110">
+        <v>8.6499999999999994E-2</v>
+      </c>
+      <c r="H110">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="I110">
+        <v>0.1328</v>
+      </c>
     </row>
     <row r="111" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E111" s="6"/>
       <c r="F111" t="s">
         <v>14</v>
       </c>
+      <c r="G111">
+        <v>0.1736</v>
+      </c>
+      <c r="H111">
+        <v>0.23760000000000001</v>
+      </c>
+      <c r="I111">
+        <v>0.28889999999999999</v>
+      </c>
     </row>
     <row r="112" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E112" s="6"/>
       <c r="F112" t="s">
         <v>15</v>
       </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
+      <c r="G112" s="4">
+        <v>0.198267</v>
+      </c>
+      <c r="H112" s="4">
+        <v>0.12948499999999999</v>
+      </c>
+      <c r="I112" s="4">
+        <v>0.30442599999999997</v>
+      </c>
       <c r="J112" s="4"/>
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
@@ -2931,9 +3813,15 @@
       <c r="F113" t="s">
         <v>16</v>
       </c>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
+      <c r="G113" s="4">
+        <v>0.37179299999999998</v>
+      </c>
+      <c r="H113" s="4">
+        <v>0.50887899999999997</v>
+      </c>
+      <c r="I113" s="4">
+        <v>0.61875500000000005</v>
+      </c>
       <c r="J113" s="4"/>
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
@@ -2949,24 +3837,60 @@
       <c r="F114" t="s">
         <v>17</v>
       </c>
+      <c r="G114">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="H114">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="I114">
+        <v>0.83899999999999997</v>
+      </c>
     </row>
     <row r="115" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E115" s="6"/>
       <c r="F115" t="s">
         <v>18</v>
       </c>
+      <c r="G115">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H115">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="I115">
+        <v>0.83399999999999996</v>
+      </c>
     </row>
     <row r="116" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E116" s="6"/>
       <c r="F116" t="s">
         <v>19</v>
       </c>
+      <c r="G116">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="H116">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="I116">
+        <v>0.83399999999999996</v>
+      </c>
     </row>
     <row r="117" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E117" s="6"/>
       <c r="F117" t="s">
         <v>21</v>
       </c>
+      <c r="G117">
+        <v>0.996</v>
+      </c>
+      <c r="H117">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="I117">
+        <v>0.93100000000000005</v>
+      </c>
     </row>
     <row r="118" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E118" s="7" t="s">
@@ -2975,17 +3899,17 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="e">
+      <c r="G118">
         <f t="shared" ref="G118:Q127" si="0">AVERAGE(G8,G18,G28,G38,G48,G58,G68,G78,G88,G98,G108)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H118" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I118" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>27.99545454545455</v>
+      </c>
+      <c r="H118">
+        <f t="shared" si="0"/>
+        <v>10.989090909090908</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="0"/>
+        <v>23.65909090909091</v>
       </c>
       <c r="J118" t="e">
         <f t="shared" si="0"/>
@@ -3025,17 +3949,17 @@
       <c r="F119" t="s">
         <v>12</v>
       </c>
-      <c r="G119" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H119" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I119" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G119">
+        <f t="shared" si="0"/>
+        <v>0.91778181818181825</v>
+      </c>
+      <c r="H119">
+        <f t="shared" si="0"/>
+        <v>0.8826727272727275</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="0"/>
+        <v>0.76764545454545463</v>
       </c>
       <c r="J119" t="e">
         <f t="shared" si="0"/>
@@ -3075,17 +3999,17 @@
       <c r="F120" t="s">
         <v>13</v>
       </c>
-      <c r="G120" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H120" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I120" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G120">
+        <f t="shared" si="0"/>
+        <v>9.2809090909090897E-2</v>
+      </c>
+      <c r="H120">
+        <f t="shared" si="0"/>
+        <v>5.1463636363636371E-2</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="0"/>
+        <v>0.12257272727272728</v>
       </c>
       <c r="J120" t="e">
         <f t="shared" si="0"/>
@@ -3125,17 +4049,17 @@
       <c r="F121" t="s">
         <v>14</v>
       </c>
-      <c r="G121" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H121" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I121" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G121">
+        <f t="shared" si="0"/>
+        <v>0.18286363636363639</v>
+      </c>
+      <c r="H121">
+        <f t="shared" si="0"/>
+        <v>0.22679090909090904</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="0"/>
+        <v>0.27758181818181815</v>
       </c>
       <c r="J121" t="e">
         <f t="shared" si="0"/>
@@ -3175,17 +4099,17 @@
       <c r="F122" t="s">
         <v>15</v>
       </c>
-      <c r="G122" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H122" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I122" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G122" s="4">
+        <f t="shared" si="0"/>
+        <v>0.21114636363636363</v>
+      </c>
+      <c r="H122" s="4">
+        <f t="shared" si="0"/>
+        <v>0.11724900000000002</v>
+      </c>
+      <c r="I122" s="4">
+        <f t="shared" si="0"/>
+        <v>0.27937754545454546</v>
       </c>
       <c r="J122" s="4" t="e">
         <f t="shared" si="0"/>
@@ -3225,17 +4149,17 @@
       <c r="F123" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H123" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I123" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G123" s="4">
+        <f t="shared" si="0"/>
+        <v>0.39019918181818181</v>
+      </c>
+      <c r="H123" s="4">
+        <f t="shared" si="0"/>
+        <v>0.48415036363636366</v>
+      </c>
+      <c r="I123" s="4">
+        <f t="shared" si="0"/>
+        <v>0.59263900000000003</v>
       </c>
       <c r="J123" s="4" t="e">
         <f t="shared" si="0"/>
@@ -3275,17 +4199,17 @@
       <c r="F124" t="s">
         <v>17</v>
       </c>
-      <c r="G124" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H124" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I124" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G124">
+        <f t="shared" si="0"/>
+        <v>0.94763636363636361</v>
+      </c>
+      <c r="H124">
+        <f t="shared" si="0"/>
+        <v>0.92963636363636371</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="0"/>
+        <v>0.85181818181818192</v>
       </c>
       <c r="J124" t="e">
         <f t="shared" si="0"/>
@@ -3325,17 +4249,17 @@
       <c r="F125" t="s">
         <v>18</v>
       </c>
-      <c r="G125" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H125" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I125" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="G125">
+        <f t="shared" si="0"/>
+        <v>0.94572727272727275</v>
+      </c>
+      <c r="H125">
+        <f t="shared" si="0"/>
+        <v>0.92272727272727295</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="0"/>
+        <v>0.84718181818181815</v>
       </c>
       <c r="J125" t="e">
         <f t="shared" si="0"/>
@@ -3375,17 +4299,17 @@
       <c r="F126" t="s">
         <v>19</v>
       </c>
-      <c r="G126" t="e">
+      <c r="G126">
         <f>AVERAGE(G16,G26,G36,G46,G56,G66,G76,G86,G96,G106,G116)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H126" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I126" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.94581818181818178</v>
+      </c>
+      <c r="H126">
+        <f t="shared" si="0"/>
+        <v>0.92209090909090918</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="0"/>
+        <v>0.84763636363636363</v>
       </c>
       <c r="J126" t="e">
         <f t="shared" si="0"/>
@@ -3425,17 +4349,17 @@
       <c r="F127" t="s">
         <v>21</v>
       </c>
-      <c r="G127" t="e">
+      <c r="G127">
         <f>AVERAGE(G17,G27,G37,G47,G57,G67,G77,G87,G97,G107,G117)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H127" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I127" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.98209090909090913</v>
+      </c>
+      <c r="H127">
+        <f t="shared" si="0"/>
+        <v>0.93990909090909092</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="0"/>
+        <v>0.93209090909090908</v>
       </c>
       <c r="J127" t="e">
         <f t="shared" si="0"/>
@@ -3472,6 +4396,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="E8:E17"/>
+    <mergeCell ref="E18:E27"/>
+    <mergeCell ref="E28:E37"/>
+    <mergeCell ref="E38:E47"/>
+    <mergeCell ref="E108:E117"/>
     <mergeCell ref="E118:E127"/>
     <mergeCell ref="E48:E57"/>
     <mergeCell ref="E58:E67"/>
@@ -3479,11 +4408,6 @@
     <mergeCell ref="E78:E87"/>
     <mergeCell ref="E88:E97"/>
     <mergeCell ref="E98:E107"/>
-    <mergeCell ref="E8:E17"/>
-    <mergeCell ref="E18:E27"/>
-    <mergeCell ref="E28:E37"/>
-    <mergeCell ref="E38:E47"/>
-    <mergeCell ref="E108:E117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/11  Linear Regression Backword/11 Performance Evaluators.xlsx
+++ b/11  Linear Regression Backword/11 Performance Evaluators.xlsx
@@ -1976,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="K111" sqref="K111"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2038,6 +2038,15 @@
       <c r="I8">
         <v>33.700000000000003</v>
       </c>
+      <c r="J8">
+        <v>18.39</v>
+      </c>
+      <c r="K8">
+        <v>125.36</v>
+      </c>
+      <c r="L8">
+        <v>16.829999999999998</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E9" s="6"/>
@@ -2053,6 +2062,15 @@
       <c r="I9">
         <v>0.78100000000000003</v>
       </c>
+      <c r="J9">
+        <v>0.61609999999999998</v>
+      </c>
+      <c r="K9">
+        <v>0.68959999999999999</v>
+      </c>
+      <c r="L9">
+        <v>0.68230000000000002</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
@@ -2068,6 +2086,15 @@
       <c r="I10">
         <v>0.1171</v>
       </c>
+      <c r="J10">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="K10">
+        <v>0.15579999999999999</v>
+      </c>
+      <c r="L10">
+        <v>0.15720000000000001</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
@@ -2083,6 +2110,15 @@
       <c r="I11">
         <v>0.27100000000000002</v>
       </c>
+      <c r="J11">
+        <v>0.32969999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.30159999999999998</v>
+      </c>
+      <c r="L11">
+        <v>0.30620000000000003</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
@@ -2098,9 +2134,15 @@
       <c r="I12" s="4">
         <v>0.26449600000000001</v>
       </c>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
+      <c r="J12" s="4">
+        <v>0.51694399999999996</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.35180099999999997</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.35494399999999998</v>
+      </c>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
@@ -2122,9 +2164,15 @@
       <c r="I13" s="4">
         <v>0.57598099999999997</v>
       </c>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="J13" s="4">
+        <v>0.70060599999999995</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0.64100900000000005</v>
+      </c>
+      <c r="L13" s="4">
+        <v>0.65061999999999998</v>
+      </c>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
       <c r="O13" s="4"/>
@@ -2146,6 +2194,15 @@
       <c r="I14">
         <v>0.85899999999999999</v>
       </c>
+      <c r="J14">
+        <v>0.753</v>
+      </c>
+      <c r="K14">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="L14">
+        <v>0.80200000000000005</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
@@ -2161,6 +2218,15 @@
       <c r="I15">
         <v>0.85399999999999998</v>
       </c>
+      <c r="J15">
+        <v>0.746</v>
+      </c>
+      <c r="K15">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="L15">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
@@ -2176,6 +2242,15 @@
       <c r="I16">
         <v>0.85499999999999998</v>
       </c>
+      <c r="J16">
+        <v>0.746</v>
+      </c>
+      <c r="K16">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="L16">
+        <v>0.78600000000000003</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
@@ -2191,6 +2266,15 @@
       <c r="I17">
         <v>0.94899999999999995</v>
       </c>
+      <c r="J17">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="K17">
+        <v>0.91800000000000004</v>
+      </c>
+      <c r="L17">
+        <v>0.91400000000000003</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18" s="6">
@@ -2207,6 +2291,15 @@
       </c>
       <c r="I18">
         <v>34.869999999999997</v>
+      </c>
+      <c r="J18">
+        <v>14.94</v>
+      </c>
+      <c r="K18">
+        <v>150.86000000000001</v>
+      </c>
+      <c r="L18">
+        <v>19.88</v>
       </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
@@ -2223,6 +2316,15 @@
       <c r="I19">
         <v>0.7873</v>
       </c>
+      <c r="J19">
+        <v>0.62749999999999995</v>
+      </c>
+      <c r="K19">
+        <v>0.69220000000000004</v>
+      </c>
+      <c r="L19">
+        <v>0.68579999999999997</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20" s="6"/>
@@ -2238,6 +2340,15 @@
       <c r="I20">
         <v>0.11459999999999999</v>
       </c>
+      <c r="J20">
+        <v>0.22509999999999999</v>
+      </c>
+      <c r="K20">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="L20">
+        <v>0.15479999999999999</v>
+      </c>
     </row>
     <row r="21" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
@@ -2253,6 +2364,15 @@
       <c r="I21">
         <v>0.26790000000000003</v>
       </c>
+      <c r="J21">
+        <v>0.3251</v>
+      </c>
+      <c r="K21">
+        <v>0.3009</v>
+      </c>
+      <c r="L21">
+        <v>0.30509999999999998</v>
+      </c>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
@@ -2268,9 +2388,15 @@
       <c r="I22" s="4">
         <v>0.25822899999999999</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="J22" s="4">
+        <v>0.50734599999999996</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.34626600000000002</v>
+      </c>
+      <c r="L22" s="4">
+        <v>0.34889900000000001</v>
+      </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
@@ -2292,9 +2418,15 @@
       <c r="I23" s="4">
         <v>0.56881000000000004</v>
       </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="J23" s="4">
+        <v>0.69029300000000005</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.63875300000000002</v>
+      </c>
+      <c r="L23" s="4">
+        <v>0.64766199999999996</v>
+      </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
@@ -2316,6 +2448,15 @@
       <c r="I24">
         <v>0.86299999999999999</v>
       </c>
+      <c r="J24">
+        <v>0.76</v>
+      </c>
+      <c r="K24">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="L24">
+        <v>0.80600000000000005</v>
+      </c>
     </row>
     <row r="25" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
@@ -2331,6 +2472,15 @@
       <c r="I25">
         <v>0.85799999999999998</v>
       </c>
+      <c r="J25">
+        <v>0.753</v>
+      </c>
+      <c r="K25">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="L25">
+        <v>0.79200000000000004</v>
+      </c>
     </row>
     <row r="26" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E26" s="6"/>
@@ -2346,6 +2496,15 @@
       <c r="I26">
         <v>0.85899999999999999</v>
       </c>
+      <c r="J26">
+        <v>0.754</v>
+      </c>
+      <c r="K26">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="L26">
+        <v>0.78800000000000003</v>
+      </c>
     </row>
     <row r="27" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
@@ -2361,6 +2520,15 @@
       <c r="I27">
         <v>0.95</v>
       </c>
+      <c r="J27">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="K27">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="L27">
+        <v>0.91800000000000004</v>
+      </c>
     </row>
     <row r="28" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E28" s="6">
@@ -2377,6 +2545,15 @@
       </c>
       <c r="I28">
         <v>35.44</v>
+      </c>
+      <c r="J28">
+        <v>13.98</v>
+      </c>
+      <c r="K28">
+        <v>117.04</v>
+      </c>
+      <c r="L28">
+        <v>19.86</v>
       </c>
     </row>
     <row r="29" spans="5:18" x14ac:dyDescent="0.25">
@@ -2393,6 +2570,15 @@
       <c r="I29">
         <v>0.78010000000000002</v>
       </c>
+      <c r="J29">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="K29">
+        <v>0.67610000000000003</v>
+      </c>
+      <c r="L29">
+        <v>0.66900000000000004</v>
+      </c>
     </row>
     <row r="30" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
@@ -2408,6 +2594,15 @@
       <c r="I30">
         <v>0.1177</v>
       </c>
+      <c r="J30">
+        <v>0.23100000000000001</v>
+      </c>
+      <c r="K30">
+        <v>0.1578</v>
+      </c>
+      <c r="L30">
+        <v>0.1595</v>
+      </c>
     </row>
     <row r="31" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
@@ -2423,6 +2618,15 @@
       <c r="I31">
         <v>0.2722</v>
       </c>
+      <c r="J31">
+        <v>0.33139999999999997</v>
+      </c>
+      <c r="K31">
+        <v>0.30919999999999997</v>
+      </c>
+      <c r="L31">
+        <v>0.31430000000000002</v>
+      </c>
     </row>
     <row r="32" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
@@ -2438,9 +2642,15 @@
       <c r="I32" s="4">
         <v>0.26567499999999999</v>
       </c>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
+      <c r="J32" s="4">
+        <v>0.52114799999999994</v>
+      </c>
+      <c r="K32" s="4">
+        <v>0.356072</v>
+      </c>
+      <c r="L32" s="4">
+        <v>0.35999399999999998</v>
+      </c>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -2462,9 +2672,15 @@
       <c r="I33" s="4">
         <v>0.57825400000000005</v>
       </c>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
+      <c r="J33" s="4">
+        <v>0.704071</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0.65684600000000004</v>
+      </c>
+      <c r="L33" s="4">
+        <v>0.66758700000000004</v>
+      </c>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -2486,6 +2702,15 @@
       <c r="I34">
         <v>0.85799999999999998</v>
       </c>
+      <c r="J34">
+        <v>0.749</v>
+      </c>
+      <c r="K34">
+        <v>0.80600000000000005</v>
+      </c>
+      <c r="L34">
+        <v>0.80100000000000005</v>
+      </c>
     </row>
     <row r="35" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E35" s="6"/>
@@ -2501,6 +2726,15 @@
       <c r="I35">
         <v>0.85399999999999998</v>
       </c>
+      <c r="J35">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="K35">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="L35">
+        <v>0.78100000000000003</v>
+      </c>
     </row>
     <row r="36" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
@@ -2516,6 +2750,15 @@
       <c r="I36">
         <v>0.85399999999999998</v>
       </c>
+      <c r="J36">
+        <v>0.73899999999999999</v>
+      </c>
+      <c r="K36">
+        <v>0.78</v>
+      </c>
+      <c r="L36">
+        <v>0.77500000000000002</v>
+      </c>
     </row>
     <row r="37" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
@@ -2531,6 +2774,15 @@
       <c r="I37">
         <v>0.94799999999999995</v>
       </c>
+      <c r="J37">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="K37">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="L37">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="38" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E38" s="6">
@@ -2547,6 +2799,15 @@
       </c>
       <c r="I38">
         <v>25.53</v>
+      </c>
+      <c r="J38">
+        <v>10.95</v>
+      </c>
+      <c r="K38">
+        <v>91.48</v>
+      </c>
+      <c r="L38">
+        <v>14.08</v>
       </c>
     </row>
     <row r="39" spans="5:18" x14ac:dyDescent="0.25">
@@ -2563,6 +2824,15 @@
       <c r="I39">
         <v>0.77859999999999996</v>
       </c>
+      <c r="J39">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="K39">
+        <v>0.68049999999999999</v>
+      </c>
+      <c r="L39">
+        <v>0.67349999999999999</v>
+      </c>
     </row>
     <row r="40" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E40" s="6"/>
@@ -2578,6 +2848,15 @@
       <c r="I40">
         <v>0.1186</v>
       </c>
+      <c r="J40">
+        <v>0.22739999999999999</v>
+      </c>
+      <c r="K40">
+        <v>0.1628</v>
+      </c>
+      <c r="L40">
+        <v>0.1638</v>
+      </c>
     </row>
     <row r="41" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
@@ -2593,6 +2872,15 @@
       <c r="I41">
         <v>0.27239999999999998</v>
       </c>
+      <c r="J41">
+        <v>0.32779999999999998</v>
+      </c>
+      <c r="K41">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="L41">
+        <v>0.30530000000000002</v>
+      </c>
     </row>
     <row r="42" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
@@ -2608,9 +2896,15 @@
       <c r="I42" s="4">
         <v>0.26858599999999999</v>
       </c>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
+      <c r="J42" s="4">
+        <v>0.51489399999999996</v>
+      </c>
+      <c r="K42" s="4">
+        <v>0.36873499999999998</v>
+      </c>
+      <c r="L42" s="4">
+        <v>0.37099599999999999</v>
+      </c>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -2632,9 +2926,15 @@
       <c r="I43" s="4">
         <v>0.57975200000000005</v>
       </c>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
+      <c r="J43" s="4">
+        <v>0.69750199999999996</v>
+      </c>
+      <c r="K43" s="4">
+        <v>0.64260200000000001</v>
+      </c>
+      <c r="L43" s="4">
+        <v>0.64964200000000005</v>
+      </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -2656,6 +2956,15 @@
       <c r="I44">
         <v>0.85799999999999998</v>
       </c>
+      <c r="J44">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="K44">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="L44">
+        <v>0.79800000000000004</v>
+      </c>
     </row>
     <row r="45" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
@@ -2671,6 +2980,15 @@
       <c r="I45">
         <v>0.85299999999999998</v>
       </c>
+      <c r="J45">
+        <v>0.75</v>
+      </c>
+      <c r="K45">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="L45">
+        <v>0.78400000000000003</v>
+      </c>
     </row>
     <row r="46" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E46" s="6"/>
@@ -2686,6 +3004,15 @@
       <c r="I46">
         <v>0.85399999999999998</v>
       </c>
+      <c r="J46">
+        <v>0.751</v>
+      </c>
+      <c r="K46">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="L46">
+        <v>0.78100000000000003</v>
+      </c>
     </row>
     <row r="47" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E47" s="6"/>
@@ -2701,6 +3028,15 @@
       <c r="I47">
         <v>0.94499999999999995</v>
       </c>
+      <c r="J47">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="K47">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="L47">
+        <v>0.91200000000000003</v>
+      </c>
     </row>
     <row r="48" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E48" s="6">
@@ -2717,6 +3053,15 @@
       </c>
       <c r="I48">
         <v>14.52</v>
+      </c>
+      <c r="J48">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="K48">
+        <v>121.99</v>
+      </c>
+      <c r="L48">
+        <v>13.82</v>
       </c>
     </row>
     <row r="49" spans="5:18" x14ac:dyDescent="0.25">
@@ -2733,6 +3078,15 @@
       <c r="I49">
         <v>0.77380000000000004</v>
       </c>
+      <c r="J49">
+        <v>0.60560000000000003</v>
+      </c>
+      <c r="K49">
+        <v>0.65139999999999998</v>
+      </c>
+      <c r="L49">
+        <v>0.64410000000000001</v>
+      </c>
     </row>
     <row r="50" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
@@ -2748,6 +3102,15 @@
       <c r="I50">
         <v>0.1197</v>
       </c>
+      <c r="J50">
+        <v>0.2369</v>
+      </c>
+      <c r="K50">
+        <v>0.16839999999999999</v>
+      </c>
+      <c r="L50">
+        <v>0.16969999999999999</v>
+      </c>
     </row>
     <row r="51" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E51" s="6"/>
@@ -2763,6 +3126,15 @@
       <c r="I51">
         <v>0.2752</v>
       </c>
+      <c r="J51">
+        <v>0.33379999999999999</v>
+      </c>
+      <c r="K51">
+        <v>0.31840000000000002</v>
+      </c>
+      <c r="L51">
+        <v>0.32290000000000002</v>
+      </c>
     </row>
     <row r="52" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E52" s="6"/>
@@ -2778,9 +3150,15 @@
       <c r="I52" s="4">
         <v>0.27243800000000001</v>
       </c>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="J52" s="4">
+        <v>0.539072</v>
+      </c>
+      <c r="K52" s="4">
+        <v>0.38313799999999998</v>
+      </c>
+      <c r="L52" s="4">
+        <v>0.38618599999999997</v>
+      </c>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
@@ -2802,9 +3180,15 @@
       <c r="I53" s="4">
         <v>0.587117</v>
       </c>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
+      <c r="J53" s="4">
+        <v>0.71204299999999998</v>
+      </c>
+      <c r="K53" s="4">
+        <v>0.67910800000000004</v>
+      </c>
+      <c r="L53" s="4">
+        <v>0.68875699999999995</v>
+      </c>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
@@ -2826,6 +3210,15 @@
       <c r="I54">
         <v>0.85599999999999998</v>
       </c>
+      <c r="J54">
+        <v>0.75</v>
+      </c>
+      <c r="K54">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="L54">
+        <v>0.78400000000000003</v>
+      </c>
     </row>
     <row r="55" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E55" s="6"/>
@@ -2841,6 +3234,15 @@
       <c r="I55">
         <v>0.85099999999999998</v>
       </c>
+      <c r="J55">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="K55">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="L55">
+        <v>0.76600000000000001</v>
+      </c>
     </row>
     <row r="56" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E56" s="6"/>
@@ -2856,6 +3258,15 @@
       <c r="I56">
         <v>0.85099999999999998</v>
       </c>
+      <c r="J56">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="K56">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="L56">
+        <v>0.76100000000000001</v>
+      </c>
     </row>
     <row r="57" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E57" s="6"/>
@@ -2871,6 +3282,15 @@
       <c r="I57">
         <v>0.84399999999999997</v>
       </c>
+      <c r="J57">
+        <v>0.876</v>
+      </c>
+      <c r="K57">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="L57">
+        <v>0.89600000000000002</v>
+      </c>
     </row>
     <row r="58" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E58" s="6">
@@ -2887,6 +3307,15 @@
       </c>
       <c r="I58">
         <v>25.02</v>
+      </c>
+      <c r="J58">
+        <v>9.19</v>
+      </c>
+      <c r="K58">
+        <v>95.09</v>
+      </c>
+      <c r="L58">
+        <v>11.87</v>
       </c>
     </row>
     <row r="59" spans="5:18" x14ac:dyDescent="0.25">
@@ -2903,6 +3332,15 @@
       <c r="I59">
         <v>0.76770000000000005</v>
       </c>
+      <c r="J59">
+        <v>0.94920000000000004</v>
+      </c>
+      <c r="K59">
+        <v>0.64329999999999998</v>
+      </c>
+      <c r="L59">
+        <v>0.63390000000000002</v>
+      </c>
     </row>
     <row r="60" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E60" s="6"/>
@@ -2918,6 +3356,15 @@
       <c r="I60">
         <v>0.122</v>
       </c>
+      <c r="J60">
+        <v>0.1048</v>
+      </c>
+      <c r="K60">
+        <v>0.1719</v>
+      </c>
+      <c r="L60">
+        <v>0.1736</v>
+      </c>
     </row>
     <row r="61" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E61" s="6"/>
@@ -2933,6 +3380,15 @@
       <c r="I61">
         <v>0.2777</v>
       </c>
+      <c r="J61">
+        <v>0.17549999999999999</v>
+      </c>
+      <c r="K61">
+        <v>0.3206</v>
+      </c>
+      <c r="L61">
+        <v>0.32579999999999998</v>
+      </c>
     </row>
     <row r="62" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E62" s="6"/>
@@ -2948,9 +3404,15 @@
       <c r="I62" s="4">
         <v>0.279671</v>
       </c>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="J62" s="4">
+        <v>0.24036099999999999</v>
+      </c>
+      <c r="K62" s="4">
+        <v>0.39417400000000002</v>
+      </c>
+      <c r="L62" s="4">
+        <v>0.39810299999999998</v>
+      </c>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
@@ -2972,9 +3434,15 @@
       <c r="I63" s="4">
         <v>0.59476499999999999</v>
       </c>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+      <c r="J63" s="4">
+        <v>0.375917</v>
+      </c>
+      <c r="K63" s="4">
+        <v>0.68660399999999999</v>
+      </c>
+      <c r="L63" s="4">
+        <v>0.69782100000000002</v>
+      </c>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
@@ -2996,6 +3464,15 @@
       <c r="I64">
         <v>0.85299999999999998</v>
       </c>
+      <c r="J64">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="K64">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="L64">
+        <v>0.78</v>
+      </c>
     </row>
     <row r="65" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E65" s="6"/>
@@ -3011,6 +3488,15 @@
       <c r="I65">
         <v>0.84799999999999998</v>
       </c>
+      <c r="J65">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="K65">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="L65">
+        <v>0.76200000000000001</v>
+      </c>
     </row>
     <row r="66" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E66" s="6"/>
@@ -3026,6 +3512,15 @@
       <c r="I66">
         <v>0.84899999999999998</v>
       </c>
+      <c r="J66">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="K66">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="L66">
+        <v>0.75600000000000001</v>
+      </c>
     </row>
     <row r="67" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E67" s="6"/>
@@ -3041,6 +3536,15 @@
       <c r="I67">
         <v>0.94099999999999995</v>
       </c>
+      <c r="J67">
+        <v>0.997</v>
+      </c>
+      <c r="K67">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="L67">
+        <v>0.89100000000000001</v>
+      </c>
     </row>
     <row r="68" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E68" s="6">
@@ -3057,6 +3561,15 @@
       </c>
       <c r="I68">
         <v>12.63</v>
+      </c>
+      <c r="J68">
+        <v>10.46</v>
+      </c>
+      <c r="K68">
+        <v>101.01</v>
+      </c>
+      <c r="L68">
+        <v>13.25</v>
       </c>
     </row>
     <row r="69" spans="5:18" x14ac:dyDescent="0.25">
@@ -3073,6 +3586,15 @@
       <c r="I69">
         <v>0.76800000000000002</v>
       </c>
+      <c r="J69">
+        <v>0.56389999999999996</v>
+      </c>
+      <c r="K69">
+        <v>0.63319999999999999</v>
+      </c>
+      <c r="L69">
+        <v>0.62360000000000004</v>
+      </c>
     </row>
     <row r="70" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E70" s="6"/>
@@ -3088,6 +3610,15 @@
       <c r="I70">
         <v>0.1216</v>
       </c>
+      <c r="J70">
+        <v>0.24440000000000001</v>
+      </c>
+      <c r="K70">
+        <v>0.1767</v>
+      </c>
+      <c r="L70">
+        <v>0.17860000000000001</v>
+      </c>
     </row>
     <row r="71" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E71" s="6"/>
@@ -3103,6 +3634,15 @@
       <c r="I71">
         <v>0.27729999999999999</v>
       </c>
+      <c r="J71">
+        <v>0.34250000000000003</v>
+      </c>
+      <c r="K71">
+        <v>0.32340000000000002</v>
+      </c>
+      <c r="L71">
+        <v>0.32850000000000001</v>
+      </c>
     </row>
     <row r="72" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E72" s="6"/>
@@ -3118,9 +3658,15 @@
       <c r="I72" s="4">
         <v>0.27785500000000002</v>
       </c>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
+      <c r="J72" s="4">
+        <v>0.55862400000000001</v>
+      </c>
+      <c r="K72" s="4">
+        <v>0.40379799999999999</v>
+      </c>
+      <c r="L72" s="4">
+        <v>0.408275</v>
+      </c>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
@@ -3142,9 +3688,15 @@
       <c r="I73" s="4">
         <v>0.59300699999999995</v>
       </c>
-      <c r="J73" s="4"/>
-      <c r="K73" s="4"/>
-      <c r="L73" s="4"/>
+      <c r="J73" s="4">
+        <v>0.73226100000000005</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0.69139499999999998</v>
+      </c>
+      <c r="L73" s="4">
+        <v>0.70235499999999995</v>
+      </c>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -3166,6 +3718,15 @@
       <c r="I74">
         <v>0.85199999999999998</v>
       </c>
+      <c r="J74">
+        <v>0.72399999999999998</v>
+      </c>
+      <c r="K74">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="L74">
+        <v>0.77200000000000002</v>
+      </c>
     </row>
     <row r="75" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E75" s="6"/>
@@ -3181,6 +3742,15 @@
       <c r="I75">
         <v>0.84799999999999998</v>
       </c>
+      <c r="J75">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="K75">
+        <v>0.76</v>
+      </c>
+      <c r="L75">
+        <v>0.753</v>
+      </c>
     </row>
     <row r="76" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E76" s="6"/>
@@ -3196,6 +3766,15 @@
       <c r="I76">
         <v>0.84799999999999998</v>
       </c>
+      <c r="J76">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="K76">
+        <v>0.754</v>
+      </c>
+      <c r="L76">
+        <v>0.748</v>
+      </c>
     </row>
     <row r="77" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E77" s="6"/>
@@ -3211,6 +3790,15 @@
       <c r="I77">
         <v>0.94</v>
       </c>
+      <c r="J77">
+        <v>0.86</v>
+      </c>
+      <c r="K77">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="L77">
+        <v>0.88700000000000001</v>
+      </c>
     </row>
     <row r="78" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E78" s="6">
@@ -3227,6 +3815,15 @@
       </c>
       <c r="I78">
         <v>21.74</v>
+      </c>
+      <c r="J78">
+        <v>10.91</v>
+      </c>
+      <c r="K78">
+        <v>82.74</v>
+      </c>
+      <c r="L78">
+        <v>10.29</v>
       </c>
     </row>
     <row r="79" spans="5:18" x14ac:dyDescent="0.25">
@@ -3243,6 +3840,15 @@
       <c r="I79">
         <v>0.7601</v>
       </c>
+      <c r="J79">
+        <v>0.56799999999999995</v>
+      </c>
+      <c r="K79">
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="L79">
+        <v>0.61080000000000001</v>
+      </c>
     </row>
     <row r="80" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E80" s="6"/>
@@ -3258,6 +3864,15 @@
       <c r="I80">
         <v>0.1246</v>
       </c>
+      <c r="J80">
+        <v>0.24429999999999999</v>
+      </c>
+      <c r="K80">
+        <v>0.18060000000000001</v>
+      </c>
+      <c r="L80">
+        <v>0.1825</v>
+      </c>
     </row>
     <row r="81" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E81" s="6"/>
@@ -3273,6 +3888,15 @@
       <c r="I81">
         <v>0.28039999999999998</v>
       </c>
+      <c r="J81">
+        <v>0.3407</v>
+      </c>
+      <c r="K81">
+        <v>0.3281</v>
+      </c>
+      <c r="L81">
+        <v>0.33339999999999997</v>
+      </c>
     </row>
     <row r="82" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E82" s="6"/>
@@ -3288,9 +3912,15 @@
       <c r="I82" s="4">
         <v>0.28637400000000002</v>
       </c>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
+      <c r="J82" s="4">
+        <v>0.56151300000000004</v>
+      </c>
+      <c r="K82" s="4">
+        <v>0.41508600000000001</v>
+      </c>
+      <c r="L82" s="4">
+        <v>0.41953000000000001</v>
+      </c>
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
@@ -3312,9 +3942,15 @@
       <c r="I83" s="4">
         <v>0.60109699999999999</v>
       </c>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+      <c r="J83" s="4">
+        <v>0.73034500000000002</v>
+      </c>
+      <c r="K83" s="4">
+        <v>0.70331699999999997</v>
+      </c>
+      <c r="L83" s="4">
+        <v>0.71470199999999995</v>
+      </c>
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
@@ -3336,6 +3972,15 @@
       <c r="I84">
         <v>0.84799999999999998</v>
       </c>
+      <c r="J84">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="K84">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="L84">
+        <v>0.77</v>
+      </c>
     </row>
     <row r="85" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E85" s="6"/>
@@ -3351,6 +3996,15 @@
       <c r="I85">
         <v>0.84399999999999997</v>
       </c>
+      <c r="J85">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="K85">
+        <v>0.752</v>
+      </c>
+      <c r="L85">
+        <v>0.745</v>
+      </c>
     </row>
     <row r="86" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E86" s="6"/>
@@ -3366,6 +4020,15 @@
       <c r="I86">
         <v>0.84399999999999997</v>
       </c>
+      <c r="J86">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="K86">
+        <v>0.746</v>
+      </c>
+      <c r="L86">
+        <v>0.73899999999999999</v>
+      </c>
     </row>
     <row r="87" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E87" s="6"/>
@@ -3381,6 +4044,15 @@
       <c r="I87">
         <v>0.93799999999999994</v>
       </c>
+      <c r="J87">
+        <v>0.85899999999999999</v>
+      </c>
+      <c r="K87">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="L87">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="88" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E88" s="6">
@@ -3397,6 +4069,15 @@
       </c>
       <c r="I88">
         <v>20.66</v>
+      </c>
+      <c r="J88">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="K88">
+        <v>56.99</v>
+      </c>
+      <c r="L88">
+        <v>8.66</v>
       </c>
     </row>
     <row r="89" spans="5:18" x14ac:dyDescent="0.25">
@@ -3413,6 +4094,15 @@
       <c r="I89">
         <v>0.74950000000000006</v>
       </c>
+      <c r="J89">
+        <v>0.55640000000000001</v>
+      </c>
+      <c r="K89">
+        <v>0.61680000000000001</v>
+      </c>
+      <c r="L89">
+        <v>0.61080000000000001</v>
+      </c>
     </row>
     <row r="90" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E90" s="6"/>
@@ -3428,6 +4118,15 @@
       <c r="I90">
         <v>0.1303</v>
       </c>
+      <c r="J90">
+        <v>0.2442</v>
+      </c>
+      <c r="K90">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="L90">
+        <v>0.18379999999999999</v>
+      </c>
     </row>
     <row r="91" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E91" s="6"/>
@@ -3443,6 +4142,15 @@
       <c r="I91">
         <v>0.28589999999999999</v>
       </c>
+      <c r="J91">
+        <v>0.34370000000000001</v>
+      </c>
+      <c r="K91">
+        <v>0.3301</v>
+      </c>
+      <c r="L91">
+        <v>0.3337</v>
+      </c>
     </row>
     <row r="92" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E92" s="6"/>
@@ -3458,9 +4166,15 @@
       <c r="I92" s="4">
         <v>0.29867100000000002</v>
       </c>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
+      <c r="J92" s="4">
+        <v>0.55959499999999995</v>
+      </c>
+      <c r="K92" s="4">
+        <v>0.41898099999999999</v>
+      </c>
+      <c r="L92" s="4">
+        <v>0.42124099999999998</v>
+      </c>
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
@@ -3482,9 +4196,15 @@
       <c r="I93" s="4">
         <v>0.61202699999999999</v>
       </c>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
+      <c r="J93" s="4">
+        <v>0.73565700000000001</v>
+      </c>
+      <c r="K93" s="4">
+        <v>0.70659899999999998</v>
+      </c>
+      <c r="L93" s="4">
+        <v>0.71428000000000003</v>
+      </c>
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
@@ -3506,6 +4226,15 @@
       <c r="I94">
         <v>0.84</v>
       </c>
+      <c r="J94">
+        <v>0.72</v>
+      </c>
+      <c r="K94">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="L94">
+        <v>0.76300000000000001</v>
+      </c>
     </row>
     <row r="95" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E95" s="6"/>
@@ -3521,6 +4250,15 @@
       <c r="I95">
         <v>0.83599999999999997</v>
       </c>
+      <c r="J95">
+        <v>0.71</v>
+      </c>
+      <c r="K95">
+        <v>0.749</v>
+      </c>
+      <c r="L95">
+        <v>0.745</v>
+      </c>
     </row>
     <row r="96" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E96" s="6"/>
@@ -3536,6 +4274,15 @@
       <c r="I96">
         <v>0.83699999999999997</v>
       </c>
+      <c r="J96">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="K96">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="L96">
+        <v>0.74099999999999999</v>
+      </c>
     </row>
     <row r="97" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E97" s="6"/>
@@ -3551,6 +4298,15 @@
       <c r="I97">
         <v>0.93400000000000005</v>
       </c>
+      <c r="J97">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="K97">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="L97">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="98" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E98" s="6">
@@ -3567,6 +4323,15 @@
       </c>
       <c r="I98">
         <v>24.06</v>
+      </c>
+      <c r="J98">
+        <v>7.96</v>
+      </c>
+      <c r="K98">
+        <v>66.98</v>
+      </c>
+      <c r="L98">
+        <v>9.4</v>
       </c>
     </row>
     <row r="99" spans="5:18" x14ac:dyDescent="0.25">
@@ -3583,6 +4348,15 @@
       <c r="I99">
         <v>0.75239999999999996</v>
       </c>
+      <c r="J99">
+        <v>0.57069999999999999</v>
+      </c>
+      <c r="K99">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="L99">
+        <v>0.60680000000000001</v>
+      </c>
     </row>
     <row r="100" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E100" s="6"/>
@@ -3598,6 +4372,15 @@
       <c r="I100">
         <v>0.1293</v>
       </c>
+      <c r="J100">
+        <v>0.2397</v>
+      </c>
+      <c r="K100">
+        <v>0.1862</v>
+      </c>
+      <c r="L100">
+        <v>0.18720000000000001</v>
+      </c>
     </row>
     <row r="101" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E101" s="6"/>
@@ -3613,6 +4396,15 @@
       <c r="I101">
         <v>0.28449999999999998</v>
       </c>
+      <c r="J101">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="K101">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="L101">
+        <v>0.33500000000000002</v>
+      </c>
     </row>
     <row r="102" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E102" s="6"/>
@@ -3628,9 +4420,15 @@
       <c r="I102" s="4">
         <v>0.296732</v>
       </c>
-      <c r="J102" s="4"/>
-      <c r="K102" s="4"/>
-      <c r="L102" s="4"/>
+      <c r="J102" s="4">
+        <v>0.55022400000000005</v>
+      </c>
+      <c r="K102" s="4">
+        <v>0.42744599999999999</v>
+      </c>
+      <c r="L102" s="4">
+        <v>0.429678</v>
+      </c>
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
@@ -3652,9 +4450,15 @@
       <c r="I103" s="4">
         <v>0.60946400000000001</v>
       </c>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
+      <c r="J103" s="4">
+        <v>0.73058800000000002</v>
+      </c>
+      <c r="K103" s="4">
+        <v>0.71124799999999999</v>
+      </c>
+      <c r="L103" s="4">
+        <v>0.71782000000000001</v>
+      </c>
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
@@ -3676,6 +4480,15 @@
       <c r="I104">
         <v>0.84399999999999997</v>
       </c>
+      <c r="J104">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="K104">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="L104">
+        <v>0.75800000000000001</v>
+      </c>
     </row>
     <row r="105" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E105" s="6"/>
@@ -3691,6 +4504,15 @@
       <c r="I105">
         <v>0.83899999999999997</v>
       </c>
+      <c r="J105">
+        <v>0.72</v>
+      </c>
+      <c r="K105">
+        <v>0.747</v>
+      </c>
+      <c r="L105">
+        <v>0.74299999999999999</v>
+      </c>
     </row>
     <row r="106" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E106" s="6"/>
@@ -3706,6 +4528,15 @@
       <c r="I106">
         <v>0.83899999999999997</v>
       </c>
+      <c r="J106">
+        <v>0.72199999999999998</v>
+      </c>
+      <c r="K106">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="L106">
+        <v>0.73899999999999999</v>
+      </c>
     </row>
     <row r="107" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E107" s="6"/>
@@ -3721,6 +4552,15 @@
       <c r="I107">
         <v>0.93300000000000005</v>
       </c>
+      <c r="J107">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="K107">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="L107">
+        <v>0.878</v>
+      </c>
     </row>
     <row r="108" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E108" s="6">
@@ -3737,6 +4577,15 @@
       </c>
       <c r="I108">
         <v>12.08</v>
+      </c>
+      <c r="J108">
+        <v>8.77</v>
+      </c>
+      <c r="K108">
+        <v>74.739999999999995</v>
+      </c>
+      <c r="L108">
+        <v>11.89</v>
       </c>
     </row>
     <row r="109" spans="5:18" x14ac:dyDescent="0.25">
@@ -3753,6 +4602,15 @@
       <c r="I109">
         <v>0.74560000000000004</v>
       </c>
+      <c r="J109">
+        <v>0.5333</v>
+      </c>
+      <c r="K109">
+        <v>0.60329999999999995</v>
+      </c>
+      <c r="L109">
+        <v>0.59599999999999997</v>
+      </c>
     </row>
     <row r="110" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E110" s="6"/>
@@ -3768,6 +4626,15 @@
       <c r="I110">
         <v>0.1328</v>
       </c>
+      <c r="J110">
+        <v>0.25790000000000002</v>
+      </c>
+      <c r="K110">
+        <v>0.1898</v>
+      </c>
+      <c r="L110">
+        <v>0.19120000000000001</v>
+      </c>
     </row>
     <row r="111" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E111" s="6"/>
@@ -3783,6 +4650,15 @@
       <c r="I111">
         <v>0.28889999999999999</v>
       </c>
+      <c r="J111">
+        <v>0.35120000000000001</v>
+      </c>
+      <c r="K111">
+        <v>0.33489999999999998</v>
+      </c>
+      <c r="L111">
+        <v>0.33839999999999998</v>
+      </c>
     </row>
     <row r="112" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E112" s="6"/>
@@ -3798,9 +4674,15 @@
       <c r="I112" s="4">
         <v>0.30442599999999997</v>
       </c>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
+      <c r="J112" s="4">
+        <v>0.59141600000000005</v>
+      </c>
+      <c r="K112" s="4">
+        <v>0.43521500000000002</v>
+      </c>
+      <c r="L112" s="4">
+        <v>0.43841999999999998</v>
+      </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
@@ -3822,9 +4704,15 @@
       <c r="I113" s="4">
         <v>0.61875500000000005</v>
       </c>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
+      <c r="J113" s="4">
+        <v>0.75218099999999999</v>
+      </c>
+      <c r="K113" s="4">
+        <v>0.71723499999999996</v>
+      </c>
+      <c r="L113" s="4">
+        <v>0.72472300000000001</v>
+      </c>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -3846,6 +4734,15 @@
       <c r="I114">
         <v>0.83899999999999997</v>
       </c>
+      <c r="J114">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="K114">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="L114">
+        <v>0.751</v>
+      </c>
     </row>
     <row r="115" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E115" s="6"/>
@@ -3861,6 +4758,15 @@
       <c r="I115">
         <v>0.83399999999999996</v>
       </c>
+      <c r="J115">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="K115">
+        <v>0.74</v>
+      </c>
+      <c r="L115">
+        <v>0.73499999999999999</v>
+      </c>
     </row>
     <row r="116" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E116" s="6"/>
@@ -3876,6 +4782,15 @@
       <c r="I116">
         <v>0.83399999999999996</v>
       </c>
+      <c r="J116">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="K116">
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="L116">
+        <v>0.73199999999999998</v>
+      </c>
     </row>
     <row r="117" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E117" s="6"/>
@@ -3891,6 +4806,15 @@
       <c r="I117">
         <v>0.93100000000000005</v>
       </c>
+      <c r="J117">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="K117">
+        <v>0.876</v>
+      </c>
+      <c r="L117">
+        <v>0.873</v>
+      </c>
     </row>
     <row r="118" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E118" s="7" t="s">
@@ -3911,17 +4835,17 @@
         <f t="shared" si="0"/>
         <v>23.65909090909091</v>
       </c>
-      <c r="J118" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K118" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L118" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J118">
+        <f t="shared" si="0"/>
+        <v>11.262727272727272</v>
+      </c>
+      <c r="K118">
+        <f t="shared" si="0"/>
+        <v>98.570909090909083</v>
+      </c>
+      <c r="L118">
+        <f t="shared" si="0"/>
+        <v>13.620909090909089</v>
       </c>
       <c r="M118" t="e">
         <f t="shared" si="0"/>
@@ -3961,17 +4885,17 @@
         <f t="shared" si="0"/>
         <v>0.76764545454545463</v>
       </c>
-      <c r="J119" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K119" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L119" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J119">
+        <f t="shared" si="0"/>
+        <v>0.61986363636363628</v>
+      </c>
+      <c r="K119">
+        <f t="shared" si="0"/>
+        <v>0.64720909090909085</v>
+      </c>
+      <c r="L119">
+        <f t="shared" si="0"/>
+        <v>0.6396909090909092</v>
       </c>
       <c r="M119" t="e">
         <f t="shared" si="0"/>
@@ -4011,17 +4935,17 @@
         <f t="shared" si="0"/>
         <v>0.12257272727272728</v>
       </c>
-      <c r="J120" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K120" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L120" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J120">
+        <f t="shared" si="0"/>
+        <v>0.22587272727272723</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="0"/>
+        <v>0.17150000000000001</v>
+      </c>
+      <c r="L120">
+        <f t="shared" si="0"/>
+        <v>0.17290000000000003</v>
       </c>
       <c r="M120" t="e">
         <f t="shared" si="0"/>
@@ -4061,17 +4985,17 @@
         <f t="shared" si="0"/>
         <v>0.27758181818181815</v>
       </c>
-      <c r="J121" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K121" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L121" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J121">
+        <f t="shared" si="0"/>
+        <v>0.32203636363636368</v>
+      </c>
+      <c r="K121">
+        <f t="shared" si="0"/>
+        <v>0.31829090909090907</v>
+      </c>
+      <c r="L121">
+        <f t="shared" si="0"/>
+        <v>0.3226</v>
       </c>
       <c r="M121" t="e">
         <f t="shared" si="0"/>
@@ -4111,17 +5035,17 @@
         <f t="shared" si="0"/>
         <v>0.27937754545454546</v>
       </c>
-      <c r="J122" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K122" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L122" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J122" s="4">
+        <f t="shared" si="0"/>
+        <v>0.51464881818181818</v>
+      </c>
+      <c r="K122" s="4">
+        <f t="shared" si="0"/>
+        <v>0.39097381818181826</v>
+      </c>
+      <c r="L122" s="4">
+        <f t="shared" si="0"/>
+        <v>0.39420599999999995</v>
       </c>
       <c r="M122" s="4" t="e">
         <f t="shared" si="0"/>
@@ -4161,17 +5085,17 @@
         <f t="shared" si="0"/>
         <v>0.59263900000000003</v>
       </c>
-      <c r="J123" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K123" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L123" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J123" s="4">
+        <f t="shared" si="0"/>
+        <v>0.68740581818181823</v>
+      </c>
+      <c r="K123" s="4">
+        <f t="shared" si="0"/>
+        <v>0.67951963636363633</v>
+      </c>
+      <c r="L123" s="4">
+        <f t="shared" si="0"/>
+        <v>0.6887244545454545</v>
       </c>
       <c r="M123" s="4" t="e">
         <f t="shared" si="0"/>
@@ -4211,17 +5135,17 @@
         <f t="shared" si="0"/>
         <v>0.85181818181818192</v>
       </c>
-      <c r="J124" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K124" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L124" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J124">
+        <f t="shared" si="0"/>
+        <v>0.75854545454545452</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="0"/>
+        <v>0.78581818181818186</v>
+      </c>
+      <c r="L124">
+        <f t="shared" si="0"/>
+        <v>0.78045454545454551</v>
       </c>
       <c r="M124" t="e">
         <f t="shared" si="0"/>
@@ -4261,17 +5185,17 @@
         <f t="shared" si="0"/>
         <v>0.84718181818181815</v>
       </c>
-      <c r="J125" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K125" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L125" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J125">
+        <f t="shared" si="0"/>
+        <v>0.75045454545454537</v>
+      </c>
+      <c r="K125">
+        <f t="shared" si="0"/>
+        <v>0.76836363636363636</v>
+      </c>
+      <c r="L125">
+        <f t="shared" si="0"/>
+        <v>0.76327272727272732</v>
       </c>
       <c r="M125" t="e">
         <f t="shared" si="0"/>
@@ -4311,17 +5235,17 @@
         <f t="shared" si="0"/>
         <v>0.84763636363636363</v>
       </c>
-      <c r="J126" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K126" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L126" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J126">
+        <f t="shared" si="0"/>
+        <v>0.75127272727272743</v>
+      </c>
+      <c r="K126">
+        <f t="shared" si="0"/>
+        <v>0.76363636363636378</v>
+      </c>
+      <c r="L126">
+        <f t="shared" si="0"/>
+        <v>0.75872727272727269</v>
       </c>
       <c r="M126" t="e">
         <f t="shared" si="0"/>
@@ -4361,17 +5285,17 @@
         <f t="shared" si="0"/>
         <v>0.93209090909090908</v>
       </c>
-      <c r="J127" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K127" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L127" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="J127">
+        <f t="shared" si="0"/>
+        <v>0.88300000000000012</v>
+      </c>
+      <c r="K127">
+        <f t="shared" si="0"/>
+        <v>0.89863636363636357</v>
+      </c>
+      <c r="L127">
+        <f t="shared" si="0"/>
+        <v>0.89445454545454528</v>
       </c>
       <c r="M127" t="e">
         <f t="shared" si="0"/>

--- a/11  Linear Regression Backword/11 Performance Evaluators.xlsx
+++ b/11  Linear Regression Backword/11 Performance Evaluators.xlsx
@@ -1976,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2047,6 +2047,12 @@
       <c r="L8">
         <v>16.829999999999998</v>
       </c>
+      <c r="M8">
+        <v>5.43</v>
+      </c>
+      <c r="N8">
+        <v>66.7</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E9" s="6"/>
@@ -2071,6 +2077,12 @@
       <c r="L9">
         <v>0.68230000000000002</v>
       </c>
+      <c r="M9">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="N9">
+        <v>0.56510000000000005</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
@@ -2095,6 +2107,12 @@
       <c r="L10">
         <v>0.15720000000000001</v>
       </c>
+      <c r="M10">
+        <v>0.2006</v>
+      </c>
+      <c r="N10">
+        <v>0.21249999999999999</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
@@ -2119,6 +2137,12 @@
       <c r="L11">
         <v>0.30620000000000003</v>
       </c>
+      <c r="M11">
+        <v>0.31879999999999997</v>
+      </c>
+      <c r="N11">
+        <v>0.36699999999999999</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
@@ -2143,8 +2167,12 @@
       <c r="L12" s="4">
         <v>0.35494399999999998</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
+      <c r="M12" s="4">
+        <v>0.45296199999999998</v>
+      </c>
+      <c r="N12" s="4">
+        <v>0.47973900000000003</v>
+      </c>
       <c r="O12" s="4"/>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -2173,8 +2201,12 @@
       <c r="L13" s="4">
         <v>0.65061999999999998</v>
       </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
+      <c r="M13" s="4">
+        <v>0.67753200000000002</v>
+      </c>
+      <c r="N13" s="4">
+        <v>0.77992700000000004</v>
+      </c>
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
@@ -2203,6 +2235,12 @@
       <c r="L14">
         <v>0.80200000000000005</v>
       </c>
+      <c r="M14">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="N14">
+        <v>0.72</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
@@ -2227,6 +2265,12 @@
       <c r="L15">
         <v>0.79</v>
       </c>
+      <c r="M15">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="N15">
+        <v>0.71299999999999997</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
@@ -2251,6 +2295,12 @@
       <c r="L16">
         <v>0.78600000000000003</v>
       </c>
+      <c r="M16">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="N16">
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
@@ -2275,6 +2325,12 @@
       <c r="L17">
         <v>0.91400000000000003</v>
       </c>
+      <c r="M17">
+        <v>0.89</v>
+      </c>
+      <c r="N17">
+        <v>0.84199999999999997</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18" s="6">
@@ -2300,6 +2356,12 @@
       </c>
       <c r="L18">
         <v>19.88</v>
+      </c>
+      <c r="M18">
+        <v>5.83</v>
+      </c>
+      <c r="N18">
+        <v>57.75</v>
       </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
@@ -2325,6 +2387,12 @@
       <c r="L19">
         <v>0.68579999999999997</v>
       </c>
+      <c r="M19">
+        <v>0.66259999999999997</v>
+      </c>
+      <c r="N19">
+        <v>0.57110000000000005</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20" s="6"/>
@@ -2349,6 +2417,12 @@
       <c r="L20">
         <v>0.15479999999999999</v>
       </c>
+      <c r="M20">
+        <v>0.1971</v>
+      </c>
+      <c r="N20">
+        <v>0.20649999999999999</v>
+      </c>
     </row>
     <row r="21" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
@@ -2373,6 +2447,12 @@
       <c r="L21">
         <v>0.30509999999999998</v>
       </c>
+      <c r="M21">
+        <v>0.317</v>
+      </c>
+      <c r="N21">
+        <v>0.36909999999999998</v>
+      </c>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
@@ -2397,8 +2477,12 @@
       <c r="L22" s="4">
         <v>0.34889900000000001</v>
       </c>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
+      <c r="M22" s="4">
+        <v>0.44421699999999997</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0.46538400000000002</v>
+      </c>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -2427,8 +2511,12 @@
       <c r="L23" s="4">
         <v>0.64766199999999996</v>
       </c>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
+      <c r="M23" s="4">
+        <v>0.67295000000000005</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0.78358099999999997</v>
+      </c>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -2457,6 +2545,12 @@
       <c r="L24">
         <v>0.80600000000000005</v>
       </c>
+      <c r="M24">
+        <v>0.79</v>
+      </c>
+      <c r="N24">
+        <v>0.72199999999999998</v>
+      </c>
     </row>
     <row r="25" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
@@ -2481,6 +2575,12 @@
       <c r="L25">
         <v>0.79200000000000004</v>
       </c>
+      <c r="M25">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="N25">
+        <v>0.71499999999999997</v>
+      </c>
     </row>
     <row r="26" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E26" s="6"/>
@@ -2505,6 +2605,12 @@
       <c r="L26">
         <v>0.78800000000000003</v>
       </c>
+      <c r="M26">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="N26">
+        <v>0.71699999999999997</v>
+      </c>
     </row>
     <row r="27" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
@@ -2529,6 +2635,12 @@
       <c r="L27">
         <v>0.91800000000000004</v>
       </c>
+      <c r="M27">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="N27">
+        <v>0.84499999999999997</v>
+      </c>
     </row>
     <row r="28" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E28" s="6">
@@ -2554,6 +2666,12 @@
       </c>
       <c r="L28">
         <v>19.86</v>
+      </c>
+      <c r="M28">
+        <v>6.13</v>
+      </c>
+      <c r="N28">
+        <v>46.99</v>
       </c>
     </row>
     <row r="29" spans="5:18" x14ac:dyDescent="0.25">
@@ -2579,6 +2697,12 @@
       <c r="L29">
         <v>0.66900000000000004</v>
       </c>
+      <c r="M29">
+        <v>0.64029999999999998</v>
+      </c>
+      <c r="N29">
+        <v>0.56689999999999996</v>
+      </c>
     </row>
     <row r="30" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
@@ -2603,6 +2727,12 @@
       <c r="L30">
         <v>0.1595</v>
       </c>
+      <c r="M30">
+        <v>0.20269999999999999</v>
+      </c>
+      <c r="N30">
+        <v>0.2147</v>
+      </c>
     </row>
     <row r="31" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
@@ -2627,6 +2757,12 @@
       <c r="L31">
         <v>0.31430000000000002</v>
       </c>
+      <c r="M31">
+        <v>0.3216</v>
+      </c>
+      <c r="N31">
+        <v>0.36559999999999998</v>
+      </c>
     </row>
     <row r="32" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
@@ -2651,8 +2787,12 @@
       <c r="L32" s="4">
         <v>0.35999399999999998</v>
       </c>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="M32" s="4">
+        <v>0.457374</v>
+      </c>
+      <c r="N32" s="4">
+        <v>0.48438999999999999</v>
+      </c>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -2681,8 +2821,12 @@
       <c r="L33" s="4">
         <v>0.66758700000000004</v>
       </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="M33" s="4">
+        <v>0.68316600000000005</v>
+      </c>
+      <c r="N33" s="4">
+        <v>0.77659100000000003</v>
+      </c>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -2711,6 +2855,12 @@
       <c r="L34">
         <v>0.80100000000000005</v>
       </c>
+      <c r="M34">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="N34">
+        <v>0.72099999999999997</v>
+      </c>
     </row>
     <row r="35" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E35" s="6"/>
@@ -2735,6 +2885,12 @@
       <c r="L35">
         <v>0.78100000000000003</v>
       </c>
+      <c r="M35">
+        <v>0.76200000000000001</v>
+      </c>
+      <c r="N35">
+        <v>0.71299999999999997</v>
+      </c>
     </row>
     <row r="36" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
@@ -2759,6 +2915,12 @@
       <c r="L36">
         <v>0.77500000000000002</v>
       </c>
+      <c r="M36">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="N36">
+        <v>0.71299999999999997</v>
+      </c>
     </row>
     <row r="37" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
@@ -2783,6 +2945,12 @@
       <c r="L37">
         <v>0.91</v>
       </c>
+      <c r="M37">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="N37">
+        <v>0.84599999999999997</v>
+      </c>
     </row>
     <row r="38" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E38" s="6">
@@ -2808,6 +2976,12 @@
       </c>
       <c r="L38">
         <v>14.08</v>
+      </c>
+      <c r="M38">
+        <v>4.33</v>
+      </c>
+      <c r="N38">
+        <v>54.97</v>
       </c>
     </row>
     <row r="39" spans="5:18" x14ac:dyDescent="0.25">
@@ -2833,6 +3007,12 @@
       <c r="L39">
         <v>0.67349999999999999</v>
       </c>
+      <c r="M39">
+        <v>0.64870000000000005</v>
+      </c>
+      <c r="N39">
+        <v>0.56430000000000002</v>
+      </c>
     </row>
     <row r="40" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E40" s="6"/>
@@ -2857,6 +3037,12 @@
       <c r="L40">
         <v>0.1638</v>
       </c>
+      <c r="M40">
+        <v>0.2084</v>
+      </c>
+      <c r="N40">
+        <v>0.2109</v>
+      </c>
     </row>
     <row r="41" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
@@ -2881,6 +3067,12 @@
       <c r="L41">
         <v>0.30530000000000002</v>
       </c>
+      <c r="M41">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="N41">
+        <v>0.37859999999999999</v>
+      </c>
     </row>
     <row r="42" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
@@ -2905,8 +3097,12 @@
       <c r="L42" s="4">
         <v>0.37099599999999999</v>
       </c>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
+      <c r="M42" s="4">
+        <v>0.46376499999999998</v>
+      </c>
+      <c r="N42" s="4">
+        <v>0.47761700000000001</v>
+      </c>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -2935,8 +3131,12 @@
       <c r="L43" s="4">
         <v>0.64964200000000005</v>
       </c>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
+      <c r="M43" s="4">
+        <v>0.68583499999999997</v>
+      </c>
+      <c r="N43" s="4">
+        <v>0.805751</v>
+      </c>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -2965,6 +3165,12 @@
       <c r="L44">
         <v>0.79800000000000004</v>
       </c>
+      <c r="M44">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="N44">
+        <v>0.71699999999999997</v>
+      </c>
     </row>
     <row r="45" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
@@ -2989,6 +3195,12 @@
       <c r="L45">
         <v>0.78400000000000003</v>
       </c>
+      <c r="M45">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="N45">
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="46" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E46" s="6"/>
@@ -3013,6 +3225,12 @@
       <c r="L46">
         <v>0.78100000000000003</v>
       </c>
+      <c r="M46">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="N46">
+        <v>0.71399999999999997</v>
+      </c>
     </row>
     <row r="47" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E47" s="6"/>
@@ -3037,6 +3255,12 @@
       <c r="L47">
         <v>0.91200000000000003</v>
       </c>
+      <c r="M47">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="N47">
+        <v>0.83199999999999996</v>
+      </c>
     </row>
     <row r="48" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E48" s="6">
@@ -3062,6 +3286,12 @@
       </c>
       <c r="L48">
         <v>13.82</v>
+      </c>
+      <c r="M48">
+        <v>3.85</v>
+      </c>
+      <c r="N48">
+        <v>50.57</v>
       </c>
     </row>
     <row r="49" spans="5:18" x14ac:dyDescent="0.25">
@@ -3087,6 +3317,12 @@
       <c r="L49">
         <v>0.64410000000000001</v>
       </c>
+      <c r="M49">
+        <v>0.62090000000000001</v>
+      </c>
+      <c r="N49">
+        <v>0.56089999999999995</v>
+      </c>
     </row>
     <row r="50" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
@@ -3111,6 +3347,12 @@
       <c r="L50">
         <v>0.16969999999999999</v>
       </c>
+      <c r="M50">
+        <v>0.21190000000000001</v>
+      </c>
+      <c r="N50">
+        <v>0.21160000000000001</v>
+      </c>
     </row>
     <row r="51" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E51" s="6"/>
@@ -3135,6 +3377,12 @@
       <c r="L51">
         <v>0.32290000000000002</v>
       </c>
+      <c r="M51">
+        <v>0.3276</v>
+      </c>
+      <c r="N51">
+        <v>0.37330000000000002</v>
+      </c>
     </row>
     <row r="52" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E52" s="6"/>
@@ -3159,8 +3407,12 @@
       <c r="L52" s="4">
         <v>0.38618599999999997</v>
       </c>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
+      <c r="M52" s="4">
+        <v>0.48214200000000002</v>
+      </c>
+      <c r="N52" s="4">
+        <v>0.48141800000000001</v>
+      </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
@@ -3189,8 +3441,12 @@
       <c r="L53" s="4">
         <v>0.68875699999999995</v>
       </c>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
+      <c r="M53" s="4">
+        <v>0.69876300000000002</v>
+      </c>
+      <c r="N53" s="4">
+        <v>0.79629700000000003</v>
+      </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
@@ -3219,6 +3475,12 @@
       <c r="L54">
         <v>0.78400000000000003</v>
       </c>
+      <c r="M54">
+        <v>0.76700000000000002</v>
+      </c>
+      <c r="N54">
+        <v>0.71799999999999997</v>
+      </c>
     </row>
     <row r="55" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E55" s="6"/>
@@ -3243,6 +3505,12 @@
       <c r="L55">
         <v>0.76600000000000001</v>
       </c>
+      <c r="M55">
+        <v>0.751</v>
+      </c>
+      <c r="N55">
+        <v>0.71099999999999997</v>
+      </c>
     </row>
     <row r="56" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E56" s="6"/>
@@ -3267,6 +3535,12 @@
       <c r="L56">
         <v>0.76100000000000001</v>
       </c>
+      <c r="M56">
+        <v>0.745</v>
+      </c>
+      <c r="N56">
+        <v>0.71199999999999997</v>
+      </c>
     </row>
     <row r="57" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E57" s="6"/>
@@ -3291,6 +3565,12 @@
       <c r="L57">
         <v>0.89600000000000002</v>
       </c>
+      <c r="M57">
+        <v>0.874</v>
+      </c>
+      <c r="N57">
+        <v>0.83099999999999996</v>
+      </c>
     </row>
     <row r="58" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E58" s="6">
@@ -3316,6 +3596,12 @@
       </c>
       <c r="L58">
         <v>11.87</v>
+      </c>
+      <c r="M58">
+        <v>4.45</v>
+      </c>
+      <c r="N58">
+        <v>26.64</v>
       </c>
     </row>
     <row r="59" spans="5:18" x14ac:dyDescent="0.25">
@@ -3341,6 +3627,12 @@
       <c r="L59">
         <v>0.63390000000000002</v>
       </c>
+      <c r="M59">
+        <v>0.62629999999999997</v>
+      </c>
+      <c r="N59">
+        <v>0.84489999999999998</v>
+      </c>
     </row>
     <row r="60" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E60" s="6"/>
@@ -3365,6 +3657,12 @@
       <c r="L60">
         <v>0.1736</v>
       </c>
+      <c r="M60">
+        <v>0.20419999999999999</v>
+      </c>
+      <c r="N60">
+        <v>7.4499999999999997E-2</v>
+      </c>
     </row>
     <row r="61" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E61" s="6"/>
@@ -3389,6 +3687,12 @@
       <c r="L61">
         <v>0.32579999999999998</v>
       </c>
+      <c r="M61">
+        <v>0.32229999999999998</v>
+      </c>
+      <c r="N61">
+        <v>0.25369999999999998</v>
+      </c>
     </row>
     <row r="62" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E62" s="6"/>
@@ -3413,8 +3717,12 @@
       <c r="L62" s="4">
         <v>0.39810299999999998</v>
       </c>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
+      <c r="M62" s="4">
+        <v>0.46826499999999999</v>
+      </c>
+      <c r="N62" s="4">
+        <v>0.17086299999999999</v>
+      </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
@@ -3443,8 +3751,12 @@
       <c r="L63" s="4">
         <v>0.69782100000000002</v>
       </c>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
+      <c r="M63" s="4">
+        <v>0.69032099999999996</v>
+      </c>
+      <c r="N63" s="4">
+        <v>0.54325400000000001</v>
+      </c>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
@@ -3473,6 +3785,12 @@
       <c r="L64">
         <v>0.78</v>
       </c>
+      <c r="M64">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="N64">
+        <v>0.90700000000000003</v>
+      </c>
     </row>
     <row r="65" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E65" s="6"/>
@@ -3497,6 +3815,12 @@
       <c r="L65">
         <v>0.76200000000000001</v>
       </c>
+      <c r="M65">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="N65">
+        <v>0.89900000000000002</v>
+      </c>
     </row>
     <row r="66" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E66" s="6"/>
@@ -3521,6 +3845,12 @@
       <c r="L66">
         <v>0.75600000000000001</v>
       </c>
+      <c r="M66">
+        <v>0.753</v>
+      </c>
+      <c r="N66">
+        <v>0.89800000000000002</v>
+      </c>
     </row>
     <row r="67" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E67" s="6"/>
@@ -3545,6 +3875,12 @@
       <c r="L67">
         <v>0.89100000000000001</v>
       </c>
+      <c r="M67">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="N67">
+        <v>0.93500000000000005</v>
+      </c>
     </row>
     <row r="68" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E68" s="6">
@@ -3570,6 +3906,12 @@
       </c>
       <c r="L68">
         <v>13.25</v>
+      </c>
+      <c r="M68">
+        <v>3.9</v>
+      </c>
+      <c r="N68">
+        <v>28.62</v>
       </c>
     </row>
     <row r="69" spans="5:18" x14ac:dyDescent="0.25">
@@ -3595,6 +3937,12 @@
       <c r="L69">
         <v>0.62360000000000004</v>
       </c>
+      <c r="M69">
+        <v>0.59140000000000004</v>
+      </c>
+      <c r="N69">
+        <v>0.52549999999999997</v>
+      </c>
     </row>
     <row r="70" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E70" s="6"/>
@@ -3619,6 +3967,12 @@
       <c r="L70">
         <v>0.17860000000000001</v>
       </c>
+      <c r="M70">
+        <v>0.222</v>
+      </c>
+      <c r="N70">
+        <v>0.2238</v>
+      </c>
     </row>
     <row r="71" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E71" s="6"/>
@@ -3643,6 +3997,12 @@
       <c r="L71">
         <v>0.32850000000000001</v>
       </c>
+      <c r="M71">
+        <v>0.33339999999999997</v>
+      </c>
+      <c r="N71">
+        <v>0.38140000000000002</v>
+      </c>
     </row>
     <row r="72" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E72" s="6"/>
@@ -3667,8 +4027,12 @@
       <c r="L72" s="4">
         <v>0.408275</v>
       </c>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
+      <c r="M72" s="4">
+        <v>0.50736300000000001</v>
+      </c>
+      <c r="N72" s="4">
+        <v>0.511598</v>
+      </c>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
@@ -3697,8 +4061,12 @@
       <c r="L73" s="4">
         <v>0.70235499999999995</v>
       </c>
-      <c r="M73" s="4"/>
-      <c r="N73" s="4"/>
+      <c r="M73" s="4">
+        <v>0.71284700000000001</v>
+      </c>
+      <c r="N73" s="4">
+        <v>0.81552000000000002</v>
+      </c>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
@@ -3727,6 +4095,12 @@
       <c r="L74">
         <v>0.77200000000000002</v>
       </c>
+      <c r="M74">
+        <v>0.748</v>
+      </c>
+      <c r="N74">
+        <v>0.69599999999999995</v>
+      </c>
     </row>
     <row r="75" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E75" s="6"/>
@@ -3751,6 +4125,12 @@
       <c r="L75">
         <v>0.753</v>
       </c>
+      <c r="M75">
+        <v>0.73199999999999998</v>
+      </c>
+      <c r="N75">
+        <v>0.68899999999999995</v>
+      </c>
     </row>
     <row r="76" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E76" s="6"/>
@@ -3775,6 +4155,12 @@
       <c r="L76">
         <v>0.748</v>
       </c>
+      <c r="M76">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="N76">
+        <v>0.68799999999999994</v>
+      </c>
     </row>
     <row r="77" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E77" s="6"/>
@@ -3799,6 +4185,12 @@
       <c r="L77">
         <v>0.88700000000000001</v>
       </c>
+      <c r="M77">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="N77">
+        <v>0.81399999999999995</v>
+      </c>
     </row>
     <row r="78" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E78" s="6">
@@ -3824,6 +4216,12 @@
       </c>
       <c r="L78">
         <v>10.29</v>
+      </c>
+      <c r="M78">
+        <v>3.4</v>
+      </c>
+      <c r="N78">
+        <v>36.47</v>
       </c>
     </row>
     <row r="79" spans="5:18" x14ac:dyDescent="0.25">
@@ -3849,6 +4247,12 @@
       <c r="L79">
         <v>0.61080000000000001</v>
       </c>
+      <c r="M79">
+        <v>0.57669999999999999</v>
+      </c>
+      <c r="N79">
+        <v>0.51829999999999998</v>
+      </c>
     </row>
     <row r="80" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E80" s="6"/>
@@ -3873,6 +4277,12 @@
       <c r="L80">
         <v>0.1825</v>
       </c>
+      <c r="M80">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="N80">
+        <v>0.22650000000000001</v>
+      </c>
     </row>
     <row r="81" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E81" s="6"/>
@@ -3897,6 +4307,12 @@
       <c r="L81">
         <v>0.33339999999999997</v>
       </c>
+      <c r="M81">
+        <v>0.33689999999999998</v>
+      </c>
+      <c r="N81">
+        <v>0.38390000000000002</v>
+      </c>
     </row>
     <row r="82" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E82" s="6"/>
@@ -3921,8 +4337,12 @@
       <c r="L82" s="4">
         <v>0.41953000000000001</v>
       </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
+      <c r="M82" s="4">
+        <v>0.518428</v>
+      </c>
+      <c r="N82" s="4">
+        <v>0.52044100000000004</v>
+      </c>
       <c r="O82" s="4"/>
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
@@ -3951,8 +4371,12 @@
       <c r="L83" s="4">
         <v>0.71470199999999995</v>
       </c>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
+      <c r="M83" s="4">
+        <v>0.72224100000000002</v>
+      </c>
+      <c r="N83" s="4">
+        <v>0.82301899999999995</v>
+      </c>
       <c r="O83" s="4"/>
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
@@ -3981,6 +4405,12 @@
       <c r="L84">
         <v>0.77</v>
       </c>
+      <c r="M84">
+        <v>0.74</v>
+      </c>
+      <c r="N84">
+        <v>0.69499999999999995</v>
+      </c>
     </row>
     <row r="85" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E85" s="6"/>
@@ -4005,6 +4435,12 @@
       <c r="L85">
         <v>0.745</v>
       </c>
+      <c r="M85">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="N85">
+        <v>0.68600000000000005</v>
+      </c>
     </row>
     <row r="86" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E86" s="6"/>
@@ -4029,6 +4465,12 @@
       <c r="L86">
         <v>0.73899999999999999</v>
       </c>
+      <c r="M86">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="N86">
+        <v>0.68700000000000006</v>
+      </c>
     </row>
     <row r="87" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E87" s="6"/>
@@ -4053,6 +4495,12 @@
       <c r="L87">
         <v>0.88</v>
       </c>
+      <c r="M87">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="N87">
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="88" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E88" s="6">
@@ -4078,6 +4526,12 @@
       </c>
       <c r="L88">
         <v>8.66</v>
+      </c>
+      <c r="M88">
+        <v>3.41</v>
+      </c>
+      <c r="N88">
+        <v>27.01</v>
       </c>
     </row>
     <row r="89" spans="5:18" x14ac:dyDescent="0.25">
@@ -4103,6 +4557,12 @@
       <c r="L89">
         <v>0.61080000000000001</v>
       </c>
+      <c r="M89">
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="N89">
+        <v>0.53749999999999998</v>
+      </c>
     </row>
     <row r="90" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E90" s="6"/>
@@ -4127,6 +4587,12 @@
       <c r="L90">
         <v>0.18379999999999999</v>
       </c>
+      <c r="M90">
+        <v>0.23350000000000001</v>
+      </c>
+      <c r="N90">
+        <v>0.21970000000000001</v>
+      </c>
     </row>
     <row r="91" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E91" s="6"/>
@@ -4151,6 +4617,12 @@
       <c r="L91">
         <v>0.3337</v>
       </c>
+      <c r="M91">
+        <v>0.33860000000000001</v>
+      </c>
+      <c r="N91">
+        <v>0.37040000000000001</v>
+      </c>
     </row>
     <row r="92" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E92" s="6"/>
@@ -4175,8 +4647,12 @@
       <c r="L92" s="4">
         <v>0.42124099999999998</v>
       </c>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
+      <c r="M92" s="4">
+        <v>0.53498900000000005</v>
+      </c>
+      <c r="N92" s="4">
+        <v>0.50331700000000001</v>
+      </c>
       <c r="O92" s="4"/>
       <c r="P92" s="4"/>
       <c r="Q92" s="4"/>
@@ -4205,8 +4681,12 @@
       <c r="L93" s="4">
         <v>0.71428000000000003</v>
       </c>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
+      <c r="M93" s="4">
+        <v>0.72484899999999997</v>
+      </c>
+      <c r="N93" s="4">
+        <v>0.792883</v>
+      </c>
       <c r="O93" s="4"/>
       <c r="P93" s="4"/>
       <c r="Q93" s="4"/>
@@ -4235,6 +4715,12 @@
       <c r="L94">
         <v>0.76300000000000001</v>
       </c>
+      <c r="M94">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="N94">
+        <v>0.70899999999999996</v>
+      </c>
     </row>
     <row r="95" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E95" s="6"/>
@@ -4259,6 +4745,12 @@
       <c r="L95">
         <v>0.745</v>
       </c>
+      <c r="M95">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="N95">
+        <v>0.69799999999999995</v>
+      </c>
     </row>
     <row r="96" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E96" s="6"/>
@@ -4283,6 +4775,12 @@
       <c r="L96">
         <v>0.74099999999999999</v>
       </c>
+      <c r="M96">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N96">
+        <v>0.69799999999999995</v>
+      </c>
     </row>
     <row r="97" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E97" s="6"/>
@@ -4307,6 +4805,12 @@
       <c r="L97">
         <v>0.88</v>
       </c>
+      <c r="M97">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="N97">
+        <v>0.82499999999999996</v>
+      </c>
     </row>
     <row r="98" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E98" s="6">
@@ -4332,6 +4836,12 @@
       </c>
       <c r="L98">
         <v>9.4</v>
+      </c>
+      <c r="M98">
+        <v>3.08</v>
+      </c>
+      <c r="N98">
+        <v>37.950000000000003</v>
       </c>
     </row>
     <row r="99" spans="5:18" x14ac:dyDescent="0.25">
@@ -4357,6 +4867,12 @@
       <c r="L99">
         <v>0.60680000000000001</v>
       </c>
+      <c r="M99">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="N99">
+        <v>0.53069999999999995</v>
+      </c>
     </row>
     <row r="100" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E100" s="6"/>
@@ -4381,6 +4897,12 @@
       <c r="L100">
         <v>0.18720000000000001</v>
       </c>
+      <c r="M100">
+        <v>0.23130000000000001</v>
+      </c>
+      <c r="N100">
+        <v>0.22450000000000001</v>
+      </c>
     </row>
     <row r="101" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E101" s="6"/>
@@ -4405,6 +4927,12 @@
       <c r="L101">
         <v>0.33500000000000002</v>
       </c>
+      <c r="M101">
+        <v>0.33839999999999998</v>
+      </c>
+      <c r="N101">
+        <v>0.37919999999999998</v>
+      </c>
     </row>
     <row r="102" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E102" s="6"/>
@@ -4429,8 +4957,12 @@
       <c r="L102" s="4">
         <v>0.429678</v>
       </c>
-      <c r="M102" s="4"/>
-      <c r="N102" s="4"/>
+      <c r="M102" s="4">
+        <v>0.530837</v>
+      </c>
+      <c r="N102" s="4">
+        <v>0.51528399999999996</v>
+      </c>
       <c r="O102" s="4"/>
       <c r="P102" s="4"/>
       <c r="Q102" s="4"/>
@@ -4459,8 +4991,12 @@
       <c r="L103" s="4">
         <v>0.71782000000000001</v>
       </c>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
+      <c r="M103" s="4">
+        <v>0.72496899999999997</v>
+      </c>
+      <c r="N103" s="4">
+        <v>0.812384</v>
+      </c>
       <c r="O103" s="4"/>
       <c r="P103" s="4"/>
       <c r="Q103" s="4"/>
@@ -4489,6 +5025,12 @@
       <c r="L104">
         <v>0.75800000000000001</v>
       </c>
+      <c r="M104">
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="N104">
+        <v>0.70399999999999996</v>
+      </c>
     </row>
     <row r="105" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E105" s="6"/>
@@ -4513,6 +5055,12 @@
       <c r="L105">
         <v>0.74299999999999999</v>
       </c>
+      <c r="M105">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="N105">
+        <v>0.69399999999999995</v>
+      </c>
     </row>
     <row r="106" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E106" s="6"/>
@@ -4537,6 +5085,12 @@
       <c r="L106">
         <v>0.73899999999999999</v>
       </c>
+      <c r="M106">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="N106">
+        <v>0.69299999999999995</v>
+      </c>
     </row>
     <row r="107" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E107" s="6"/>
@@ -4561,6 +5115,12 @@
       <c r="L107">
         <v>0.878</v>
       </c>
+      <c r="M107">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="N107">
+        <v>0.81799999999999995</v>
+      </c>
     </row>
     <row r="108" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E108" s="6">
@@ -4586,6 +5146,12 @@
       </c>
       <c r="L108">
         <v>11.89</v>
+      </c>
+      <c r="M108">
+        <v>3.99</v>
+      </c>
+      <c r="N108">
+        <v>34.130000000000003</v>
       </c>
     </row>
     <row r="109" spans="5:18" x14ac:dyDescent="0.25">
@@ -4611,6 +5177,12 @@
       <c r="L109">
         <v>0.59599999999999997</v>
       </c>
+      <c r="M109">
+        <v>0.56520000000000004</v>
+      </c>
+      <c r="N109">
+        <v>0.50409999999999999</v>
+      </c>
     </row>
     <row r="110" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E110" s="6"/>
@@ -4635,6 +5207,12 @@
       <c r="L110">
         <v>0.19120000000000001</v>
       </c>
+      <c r="M110">
+        <v>0.23699999999999999</v>
+      </c>
+      <c r="N110">
+        <v>0.22839999999999999</v>
+      </c>
     </row>
     <row r="111" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E111" s="6"/>
@@ -4659,6 +5237,12 @@
       <c r="L111">
         <v>0.33839999999999998</v>
       </c>
+      <c r="M111">
+        <v>0.34229999999999999</v>
+      </c>
+      <c r="N111">
+        <v>0.37880000000000003</v>
+      </c>
     </row>
     <row r="112" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E112" s="6"/>
@@ -4683,8 +5267,12 @@
       <c r="L112" s="4">
         <v>0.43841999999999998</v>
       </c>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
+      <c r="M112" s="4">
+        <v>0.54358899999999999</v>
+      </c>
+      <c r="N112" s="4">
+        <v>0.52374399999999999</v>
+      </c>
       <c r="O112" s="4"/>
       <c r="P112" s="4"/>
       <c r="Q112" s="4"/>
@@ -4713,8 +5301,12 @@
       <c r="L113" s="4">
         <v>0.72472300000000001</v>
       </c>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
+      <c r="M113" s="4">
+        <v>0.73316499999999996</v>
+      </c>
+      <c r="N113" s="4">
+        <v>0.811338</v>
+      </c>
       <c r="O113" s="4"/>
       <c r="P113" s="4"/>
       <c r="Q113" s="4"/>
@@ -4743,6 +5335,12 @@
       <c r="L114">
         <v>0.751</v>
       </c>
+      <c r="M114">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="N114">
+        <v>0.68300000000000005</v>
+      </c>
     </row>
     <row r="115" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E115" s="6"/>
@@ -4767,6 +5365,12 @@
       <c r="L115">
         <v>0.73499999999999999</v>
       </c>
+      <c r="M115">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="N115">
+        <v>0.67600000000000005</v>
+      </c>
     </row>
     <row r="116" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E116" s="6"/>
@@ -4791,6 +5395,12 @@
       <c r="L116">
         <v>0.73199999999999998</v>
       </c>
+      <c r="M116">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="N116">
+        <v>0.67800000000000005</v>
+      </c>
     </row>
     <row r="117" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E117" s="6"/>
@@ -4815,6 +5425,12 @@
       <c r="L117">
         <v>0.873</v>
       </c>
+      <c r="M117">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="N117">
+        <v>0.81499999999999995</v>
+      </c>
     </row>
     <row r="118" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E118" s="7" t="s">
@@ -4847,13 +5463,13 @@
         <f t="shared" si="0"/>
         <v>13.620909090909089</v>
       </c>
-      <c r="M118" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N118" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="M118">
+        <f t="shared" si="0"/>
+        <v>4.3454545454545457</v>
+      </c>
+      <c r="N118">
+        <f t="shared" si="0"/>
+        <v>42.527272727272731</v>
       </c>
       <c r="O118" t="e">
         <f t="shared" si="0"/>
@@ -4897,13 +5513,13 @@
         <f t="shared" si="0"/>
         <v>0.6396909090909092</v>
       </c>
-      <c r="M119" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N119" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="M119">
+        <f t="shared" si="0"/>
+        <v>0.61221818181818177</v>
+      </c>
+      <c r="N119">
+        <f t="shared" si="0"/>
+        <v>0.5717545454545454</v>
       </c>
       <c r="O119" t="e">
         <f t="shared" si="0"/>
@@ -4947,13 +5563,13 @@
         <f t="shared" si="0"/>
         <v>0.17290000000000003</v>
       </c>
-      <c r="M120" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N120" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="M120">
+        <f t="shared" si="0"/>
+        <v>0.21584545454545456</v>
+      </c>
+      <c r="N120">
+        <f t="shared" si="0"/>
+        <v>0.20487272727272729</v>
       </c>
       <c r="O120" t="e">
         <f t="shared" si="0"/>
@@ -4997,13 +5613,13 @@
         <f t="shared" si="0"/>
         <v>0.3226</v>
       </c>
-      <c r="M121" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N121" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="M121">
+        <f t="shared" si="0"/>
+        <v>0.32901818181818182</v>
+      </c>
+      <c r="N121">
+        <f t="shared" si="0"/>
+        <v>0.36372727272727273</v>
       </c>
       <c r="O121" t="e">
         <f t="shared" si="0"/>
@@ -5047,13 +5663,13 @@
         <f t="shared" si="0"/>
         <v>0.39420599999999995</v>
       </c>
-      <c r="M122" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N122" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="M122" s="4">
+        <f t="shared" si="0"/>
+        <v>0.49126645454545453</v>
+      </c>
+      <c r="N122" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46670863636363635</v>
       </c>
       <c r="O122" s="4" t="e">
         <f t="shared" si="0"/>
@@ -5097,13 +5713,13 @@
         <f t="shared" si="0"/>
         <v>0.6887244545454545</v>
       </c>
-      <c r="M123" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N123" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="M123" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7024216363636363</v>
+      </c>
+      <c r="N123" s="4">
+        <f t="shared" si="0"/>
+        <v>0.77641318181818175</v>
       </c>
       <c r="O123" s="4" t="e">
         <f t="shared" si="0"/>
@@ -5147,13 +5763,13 @@
         <f t="shared" si="0"/>
         <v>0.78045454545454551</v>
       </c>
-      <c r="M124" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N124" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="M124">
+        <f t="shared" si="0"/>
+        <v>0.75936363636363635</v>
+      </c>
+      <c r="N124">
+        <f t="shared" si="0"/>
+        <v>0.72654545454545449</v>
       </c>
       <c r="O124" t="e">
         <f t="shared" si="0"/>
@@ -5197,13 +5813,13 @@
         <f t="shared" si="0"/>
         <v>0.76327272727272732</v>
       </c>
-      <c r="M125" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N125" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="M125">
+        <f t="shared" si="0"/>
+        <v>0.74536363636363634</v>
+      </c>
+      <c r="N125">
+        <f t="shared" si="0"/>
+        <v>0.71872727272727266</v>
       </c>
       <c r="O125" t="e">
         <f t="shared" si="0"/>
@@ -5247,13 +5863,13 @@
         <f t="shared" si="0"/>
         <v>0.75872727272727269</v>
       </c>
-      <c r="M126" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N126" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="M126">
+        <f t="shared" si="0"/>
+        <v>0.74081818181818193</v>
+      </c>
+      <c r="N126">
+        <f t="shared" si="0"/>
+        <v>0.719090909090909</v>
       </c>
       <c r="O126" t="e">
         <f t="shared" si="0"/>
@@ -5297,13 +5913,13 @@
         <f t="shared" si="0"/>
         <v>0.89445454545454528</v>
       </c>
-      <c r="M127" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N127" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="M127">
+        <f t="shared" si="0"/>
+        <v>0.87190909090909097</v>
+      </c>
+      <c r="N127">
+        <f t="shared" si="0"/>
+        <v>0.83745454545454545</v>
       </c>
       <c r="O127" t="e">
         <f t="shared" si="0"/>

--- a/11  Linear Regression Backword/11 Performance Evaluators.xlsx
+++ b/11  Linear Regression Backword/11 Performance Evaluators.xlsx
@@ -1976,8 +1976,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:R127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2053,6 +2053,15 @@
       <c r="N8">
         <v>66.7</v>
       </c>
+      <c r="O8">
+        <v>9.58</v>
+      </c>
+      <c r="P8">
+        <v>193.31</v>
+      </c>
+      <c r="Q8">
+        <v>25.67</v>
+      </c>
     </row>
     <row r="9" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E9" s="6"/>
@@ -2083,6 +2092,15 @@
       <c r="N9">
         <v>0.56510000000000005</v>
       </c>
+      <c r="O9">
+        <v>0.55479999999999996</v>
+      </c>
+      <c r="P9">
+        <v>0.36549999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>0.2263</v>
+      </c>
     </row>
     <row r="10" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E10" s="6"/>
@@ -2113,6 +2131,15 @@
       <c r="N10">
         <v>0.21249999999999999</v>
       </c>
+      <c r="O10">
+        <v>0.21729999999999999</v>
+      </c>
+      <c r="P10">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="Q10">
+        <v>0.40210000000000001</v>
+      </c>
     </row>
     <row r="11" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E11" s="6"/>
@@ -2143,6 +2170,15 @@
       <c r="N11">
         <v>0.36699999999999999</v>
       </c>
+      <c r="O11">
+        <v>0.37869999999999998</v>
+      </c>
+      <c r="P11">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0.44850000000000001</v>
+      </c>
     </row>
     <row r="12" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E12" s="6"/>
@@ -2173,9 +2209,15 @@
       <c r="N12" s="4">
         <v>0.47973900000000003</v>
       </c>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
+      <c r="O12" s="4">
+        <v>0.49063600000000002</v>
+      </c>
+      <c r="P12" s="4">
+        <v>0.72945099999999996</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.90790400000000004</v>
+      </c>
       <c r="R12" s="4"/>
     </row>
     <row r="13" spans="5:18" x14ac:dyDescent="0.25">
@@ -2207,9 +2249,15 @@
       <c r="N13" s="4">
         <v>0.77992700000000004</v>
       </c>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
+      <c r="O13" s="4">
+        <v>0.80483700000000002</v>
+      </c>
+      <c r="P13" s="4">
+        <v>0.86758900000000005</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>0.95309500000000003</v>
+      </c>
       <c r="R13" s="4"/>
     </row>
     <row r="14" spans="5:18" x14ac:dyDescent="0.25">
@@ -2241,6 +2289,15 @@
       <c r="N14">
         <v>0.72</v>
       </c>
+      <c r="O14">
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="P14">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="Q14">
+        <v>0.48399999999999999</v>
+      </c>
     </row>
     <row r="15" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E15" s="6"/>
@@ -2271,6 +2328,15 @@
       <c r="N15">
         <v>0.71299999999999997</v>
       </c>
+      <c r="O15">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="P15">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="Q15">
+        <v>0.48899999999999999</v>
+      </c>
     </row>
     <row r="16" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E16" s="6"/>
@@ -2301,6 +2367,15 @@
       <c r="N16">
         <v>0.71199999999999997</v>
       </c>
+      <c r="O16">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="P16">
+        <v>0.58299999999999996</v>
+      </c>
+      <c r="Q16">
+        <v>0.48399999999999999</v>
+      </c>
     </row>
     <row r="17" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E17" s="6"/>
@@ -2331,6 +2406,15 @@
       <c r="N17">
         <v>0.84199999999999997</v>
       </c>
+      <c r="O17">
+        <v>0.83</v>
+      </c>
+      <c r="P17">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="Q17">
+        <v>0.67500000000000004</v>
+      </c>
     </row>
     <row r="18" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E18" s="6">
@@ -2362,6 +2446,15 @@
       </c>
       <c r="N18">
         <v>57.75</v>
+      </c>
+      <c r="O18">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="P18">
+        <v>171.13</v>
+      </c>
+      <c r="Q18">
+        <v>19.18</v>
       </c>
     </row>
     <row r="19" spans="5:18" x14ac:dyDescent="0.25">
@@ -2393,6 +2486,15 @@
       <c r="N19">
         <v>0.57110000000000005</v>
       </c>
+      <c r="O19">
+        <v>0.56559999999999999</v>
+      </c>
+      <c r="P19">
+        <v>0.37780000000000002</v>
+      </c>
+      <c r="Q19">
+        <v>0.189</v>
+      </c>
     </row>
     <row r="20" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E20" s="6"/>
@@ -2423,6 +2525,15 @@
       <c r="N20">
         <v>0.20649999999999999</v>
       </c>
+      <c r="O20">
+        <v>0.2114</v>
+      </c>
+      <c r="P20">
+        <v>0.32429999999999998</v>
+      </c>
+      <c r="Q20">
+        <v>0.40949999999999998</v>
+      </c>
     </row>
     <row r="21" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E21" s="6"/>
@@ -2453,6 +2564,15 @@
       <c r="N21">
         <v>0.36909999999999998</v>
       </c>
+      <c r="O21">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="P21">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="Q21">
+        <v>0.45240000000000002</v>
+      </c>
     </row>
     <row r="22" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E22" s="6"/>
@@ -2483,9 +2603,15 @@
       <c r="N22" s="4">
         <v>0.46538400000000002</v>
       </c>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
+      <c r="O22" s="4">
+        <v>0.47643000000000002</v>
+      </c>
+      <c r="P22" s="4">
+        <v>0.730935</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>0.92292099999999999</v>
+      </c>
       <c r="R22" s="4"/>
     </row>
     <row r="23" spans="5:18" x14ac:dyDescent="0.25">
@@ -2517,9 +2643,15 @@
       <c r="N23" s="4">
         <v>0.78358099999999997</v>
       </c>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
+      <c r="O23" s="4">
+        <v>0.808894</v>
+      </c>
+      <c r="P23" s="4">
+        <v>0.86123000000000005</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>0.96058500000000002</v>
+      </c>
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="5:18" x14ac:dyDescent="0.25">
@@ -2551,6 +2683,15 @@
       <c r="N24">
         <v>0.72199999999999998</v>
       </c>
+      <c r="O24">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="P24">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="Q24">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="25" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E25" s="6"/>
@@ -2581,6 +2722,15 @@
       <c r="N25">
         <v>0.71499999999999997</v>
       </c>
+      <c r="O25">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="P25">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="Q25">
+        <v>0.46200000000000002</v>
+      </c>
     </row>
     <row r="26" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E26" s="6"/>
@@ -2611,6 +2761,15 @@
       <c r="N26">
         <v>0.71699999999999997</v>
       </c>
+      <c r="O26">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="P26">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="Q26">
+        <v>0.46</v>
+      </c>
     </row>
     <row r="27" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E27" s="6"/>
@@ -2641,6 +2800,15 @@
       <c r="N27">
         <v>0.84499999999999997</v>
       </c>
+      <c r="O27">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="P27">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="Q27">
+        <v>0.65600000000000003</v>
+      </c>
     </row>
     <row r="28" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E28" s="6">
@@ -2672,6 +2840,15 @@
       </c>
       <c r="N28">
         <v>46.99</v>
+      </c>
+      <c r="O28">
+        <v>7.11</v>
+      </c>
+      <c r="P28">
+        <v>161.69999999999999</v>
+      </c>
+      <c r="Q28">
+        <v>19.47</v>
       </c>
     </row>
     <row r="29" spans="5:18" x14ac:dyDescent="0.25">
@@ -2703,6 +2880,15 @@
       <c r="N29">
         <v>0.56689999999999996</v>
       </c>
+      <c r="O29">
+        <v>0.56030000000000002</v>
+      </c>
+      <c r="P29">
+        <v>0.40329999999999999</v>
+      </c>
+      <c r="Q29">
+        <v>0.23910000000000001</v>
+      </c>
     </row>
     <row r="30" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E30" s="6"/>
@@ -2733,6 +2919,15 @@
       <c r="N30">
         <v>0.2147</v>
       </c>
+      <c r="O30">
+        <v>0.216</v>
+      </c>
+      <c r="P30">
+        <v>0.30930000000000002</v>
+      </c>
+      <c r="Q30">
+        <v>0.39529999999999998</v>
+      </c>
     </row>
     <row r="31" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E31" s="6"/>
@@ -2763,6 +2958,15 @@
       <c r="N31">
         <v>0.36559999999999998</v>
       </c>
+      <c r="O31">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="P31">
+        <v>0.39789999999999998</v>
+      </c>
+      <c r="Q31">
+        <v>0.4451</v>
+      </c>
     </row>
     <row r="32" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E32" s="6"/>
@@ -2793,9 +2997,15 @@
       <c r="N32" s="4">
         <v>0.48438999999999999</v>
       </c>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
+      <c r="O32" s="4">
+        <v>0.48741499999999999</v>
+      </c>
+      <c r="P32" s="4">
+        <v>0.69796499999999995</v>
+      </c>
+      <c r="Q32" s="4">
+        <v>0.89200800000000002</v>
+      </c>
       <c r="R32" s="4"/>
     </row>
     <row r="33" spans="5:18" x14ac:dyDescent="0.25">
@@ -2827,9 +3037,15 @@
       <c r="N33" s="4">
         <v>0.77659100000000003</v>
       </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
+      <c r="O33" s="4">
+        <v>0.79893099999999995</v>
+      </c>
+      <c r="P33" s="4">
+        <v>0.84533100000000005</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>0.94556700000000005</v>
+      </c>
       <c r="R33" s="4"/>
     </row>
     <row r="34" spans="5:18" x14ac:dyDescent="0.25">
@@ -2861,6 +3077,15 @@
       <c r="N34">
         <v>0.72099999999999997</v>
       </c>
+      <c r="O34">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="P34">
+        <v>0.622</v>
+      </c>
+      <c r="Q34">
+        <v>0.49299999999999999</v>
+      </c>
     </row>
     <row r="35" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E35" s="6"/>
@@ -2891,6 +3116,15 @@
       <c r="N35">
         <v>0.71299999999999997</v>
       </c>
+      <c r="O35">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="P35">
+        <v>0.60599999999999998</v>
+      </c>
+      <c r="Q35">
+        <v>0.496</v>
+      </c>
     </row>
     <row r="36" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E36" s="6"/>
@@ -2921,6 +3155,15 @@
       <c r="N36">
         <v>0.71299999999999997</v>
       </c>
+      <c r="O36">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="P36">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="Q36">
+        <v>0.49299999999999999</v>
+      </c>
     </row>
     <row r="37" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E37" s="6"/>
@@ -2951,6 +3194,15 @@
       <c r="N37">
         <v>0.84599999999999997</v>
       </c>
+      <c r="O37">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="P37">
+        <v>0.79</v>
+      </c>
+      <c r="Q37">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="38" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E38" s="6">
@@ -2982,6 +3234,12 @@
       </c>
       <c r="N38">
         <v>54.97</v>
+      </c>
+      <c r="O38">
+        <v>7.19</v>
+      </c>
+      <c r="Q38">
+        <v>17.18</v>
       </c>
     </row>
     <row r="39" spans="5:18" x14ac:dyDescent="0.25">
@@ -3013,6 +3271,15 @@
       <c r="N39">
         <v>0.56430000000000002</v>
       </c>
+      <c r="O39">
+        <v>0.56130000000000002</v>
+      </c>
+      <c r="P39">
+        <v>0.42980000000000002</v>
+      </c>
+      <c r="Q39">
+        <v>0.22509999999999999</v>
+      </c>
     </row>
     <row r="40" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E40" s="6"/>
@@ -3043,6 +3310,15 @@
       <c r="N40">
         <v>0.2109</v>
       </c>
+      <c r="O40">
+        <v>0.2142</v>
+      </c>
+      <c r="P40">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="Q40">
+        <v>0.3997</v>
+      </c>
     </row>
     <row r="41" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E41" s="6"/>
@@ -3073,6 +3349,15 @@
       <c r="N41">
         <v>0.37859999999999999</v>
       </c>
+      <c r="O41">
+        <v>0.38279999999999997</v>
+      </c>
+      <c r="P41">
+        <v>0.39190000000000003</v>
+      </c>
+      <c r="Q41">
+        <v>0.44719999999999999</v>
+      </c>
     </row>
     <row r="42" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E42" s="6"/>
@@ -3103,9 +3388,15 @@
       <c r="N42" s="4">
         <v>0.47761700000000001</v>
       </c>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
+      <c r="O42" s="4">
+        <v>0.484962</v>
+      </c>
+      <c r="P42" s="4">
+        <v>0.67652100000000004</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>0.90504499999999999</v>
+      </c>
       <c r="R42" s="4"/>
     </row>
     <row r="43" spans="5:18" x14ac:dyDescent="0.25">
@@ -3137,9 +3428,15 @@
       <c r="N43" s="4">
         <v>0.805751</v>
       </c>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
+      <c r="O43" s="4">
+        <v>0.81469999999999998</v>
+      </c>
+      <c r="P43" s="4">
+        <v>0.83406899999999995</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>0.95166300000000004</v>
+      </c>
       <c r="R43" s="4"/>
     </row>
     <row r="44" spans="5:18" x14ac:dyDescent="0.25">
@@ -3171,6 +3468,15 @@
       <c r="N44">
         <v>0.71699999999999997</v>
       </c>
+      <c r="O44">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="P44">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="Q44">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="45" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E45" s="6"/>
@@ -3201,6 +3507,15 @@
       <c r="N45">
         <v>0.71199999999999997</v>
       </c>
+      <c r="O45">
+        <v>0.71</v>
+      </c>
+      <c r="P45">
+        <v>0.625</v>
+      </c>
+      <c r="Q45">
+        <v>0.49</v>
+      </c>
     </row>
     <row r="46" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E46" s="6"/>
@@ -3231,6 +3546,15 @@
       <c r="N46">
         <v>0.71399999999999997</v>
       </c>
+      <c r="O46">
+        <v>0.71099999999999997</v>
+      </c>
+      <c r="P46">
+        <v>0.628</v>
+      </c>
+      <c r="Q46">
+        <v>0.48799999999999999</v>
+      </c>
     </row>
     <row r="47" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E47" s="6"/>
@@ -3261,6 +3585,15 @@
       <c r="N47">
         <v>0.83199999999999996</v>
       </c>
+      <c r="O47">
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="P47">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="Q47">
+        <v>0.68100000000000005</v>
+      </c>
     </row>
     <row r="48" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E48" s="6">
@@ -3292,6 +3625,15 @@
       </c>
       <c r="N48">
         <v>50.57</v>
+      </c>
+      <c r="O48">
+        <v>3.4</v>
+      </c>
+      <c r="P48">
+        <v>140.53</v>
+      </c>
+      <c r="Q48">
+        <v>7.28</v>
       </c>
     </row>
     <row r="49" spans="5:18" x14ac:dyDescent="0.25">
@@ -3323,6 +3665,15 @@
       <c r="N49">
         <v>0.56089999999999995</v>
       </c>
+      <c r="O49">
+        <v>0.54410000000000003</v>
+      </c>
+      <c r="P49">
+        <v>0.41849999999999998</v>
+      </c>
+      <c r="Q49">
+        <v>0.20780000000000001</v>
+      </c>
     </row>
     <row r="50" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E50" s="6"/>
@@ -3353,6 +3704,15 @@
       <c r="N50">
         <v>0.21160000000000001</v>
       </c>
+      <c r="O50">
+        <v>0.21679999999999999</v>
+      </c>
+      <c r="P50">
+        <v>0.31440000000000001</v>
+      </c>
+      <c r="Q50">
+        <v>0.4007</v>
+      </c>
     </row>
     <row r="51" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E51" s="6"/>
@@ -3383,6 +3743,15 @@
       <c r="N51">
         <v>0.37330000000000002</v>
       </c>
+      <c r="O51">
+        <v>0.39250000000000002</v>
+      </c>
+      <c r="P51">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="Q51">
+        <v>0.44769999999999999</v>
+      </c>
     </row>
     <row r="52" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E52" s="6"/>
@@ -3413,9 +3782,15 @@
       <c r="N52" s="4">
         <v>0.48141800000000001</v>
       </c>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
+      <c r="O52" s="4">
+        <v>0.49328699999999998</v>
+      </c>
+      <c r="P52" s="4">
+        <v>0.71539299999999995</v>
+      </c>
+      <c r="Q52" s="4">
+        <v>0.911713</v>
+      </c>
       <c r="R52" s="4"/>
     </row>
     <row r="53" spans="5:18" x14ac:dyDescent="0.25">
@@ -3447,9 +3822,15 @@
       <c r="N53" s="4">
         <v>0.79629700000000003</v>
       </c>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
+      <c r="O53" s="4">
+        <v>0.83727099999999999</v>
+      </c>
+      <c r="P53" s="4">
+        <v>0.85967199999999999</v>
+      </c>
+      <c r="Q53" s="4">
+        <v>0.955125</v>
+      </c>
       <c r="R53" s="4"/>
     </row>
     <row r="54" spans="5:18" x14ac:dyDescent="0.25">
@@ -3481,6 +3862,15 @@
       <c r="N54">
         <v>0.71799999999999997</v>
       </c>
+      <c r="O54">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="P54">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="Q54">
+        <v>0.48199999999999998</v>
+      </c>
     </row>
     <row r="55" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E55" s="6"/>
@@ -3511,6 +3901,15 @@
       <c r="N55">
         <v>0.71099999999999997</v>
       </c>
+      <c r="O55">
+        <v>0.7</v>
+      </c>
+      <c r="P55">
+        <v>0.622</v>
+      </c>
+      <c r="Q55">
+        <v>0.48399999999999999</v>
+      </c>
     </row>
     <row r="56" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E56" s="6"/>
@@ -3541,6 +3940,15 @@
       <c r="N56">
         <v>0.71199999999999997</v>
       </c>
+      <c r="O56">
+        <v>0.69899999999999995</v>
+      </c>
+      <c r="P56">
+        <v>0.624</v>
+      </c>
+      <c r="Q56">
+        <v>0.47899999999999998</v>
+      </c>
     </row>
     <row r="57" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E57" s="6"/>
@@ -3571,6 +3979,15 @@
       <c r="N57">
         <v>0.83099999999999996</v>
       </c>
+      <c r="O57">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="P57">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="Q57">
+        <v>0.67400000000000004</v>
+      </c>
     </row>
     <row r="58" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E58" s="6">
@@ -3602,6 +4019,15 @@
       </c>
       <c r="N58">
         <v>26.64</v>
+      </c>
+      <c r="O58">
+        <v>6.07</v>
+      </c>
+      <c r="P58">
+        <v>129.91</v>
+      </c>
+      <c r="Q58">
+        <v>12.05</v>
       </c>
     </row>
     <row r="59" spans="5:18" x14ac:dyDescent="0.25">
@@ -3633,6 +4059,15 @@
       <c r="N59">
         <v>0.84489999999999998</v>
       </c>
+      <c r="O59">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="P59">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="Q59">
+        <v>0.1847</v>
+      </c>
     </row>
     <row r="60" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E60" s="6"/>
@@ -3663,6 +4098,15 @@
       <c r="N60">
         <v>7.4499999999999997E-2</v>
       </c>
+      <c r="O60">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="P60">
+        <v>0.33350000000000002</v>
+      </c>
+      <c r="Q60">
+        <v>0.40329999999999999</v>
+      </c>
     </row>
     <row r="61" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E61" s="6"/>
@@ -3693,6 +4137,15 @@
       <c r="N61">
         <v>0.25369999999999998</v>
       </c>
+      <c r="O61">
+        <v>0.2646</v>
+      </c>
+      <c r="P61">
+        <v>0.41760000000000003</v>
+      </c>
+      <c r="Q61">
+        <v>0.44900000000000001</v>
+      </c>
     </row>
     <row r="62" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E62" s="6"/>
@@ -3723,9 +4176,15 @@
       <c r="N62" s="4">
         <v>0.17086299999999999</v>
       </c>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
+      <c r="O62" s="4">
+        <v>0.19500799999999999</v>
+      </c>
+      <c r="P62" s="4">
+        <v>0.76486399999999999</v>
+      </c>
+      <c r="Q62" s="4">
+        <v>0.92489500000000002</v>
+      </c>
       <c r="R62" s="4"/>
     </row>
     <row r="63" spans="5:18" x14ac:dyDescent="0.25">
@@ -3757,9 +4216,15 @@
       <c r="N63" s="4">
         <v>0.54325400000000001</v>
       </c>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
+      <c r="O63" s="4">
+        <v>0.56666499999999997</v>
+      </c>
+      <c r="P63" s="4">
+        <v>0.89432199999999995</v>
+      </c>
+      <c r="Q63" s="4">
+        <v>0.96167599999999998</v>
+      </c>
       <c r="R63" s="4"/>
     </row>
     <row r="64" spans="5:18" x14ac:dyDescent="0.25">
@@ -3791,6 +4256,15 @@
       <c r="N64">
         <v>0.90700000000000003</v>
       </c>
+      <c r="O64">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="P64">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="Q64">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="65" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E65" s="6"/>
@@ -3821,6 +4295,15 @@
       <c r="N65">
         <v>0.89900000000000002</v>
       </c>
+      <c r="O65">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="P65">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="Q65">
+        <v>0.47899999999999998</v>
+      </c>
     </row>
     <row r="66" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E66" s="6"/>
@@ -3851,6 +4334,15 @@
       <c r="N66">
         <v>0.89800000000000002</v>
       </c>
+      <c r="O66">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="P66">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="Q66">
+        <v>0.46600000000000003</v>
+      </c>
     </row>
     <row r="67" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E67" s="6"/>
@@ -3881,6 +4373,15 @@
       <c r="N67">
         <v>0.93500000000000005</v>
       </c>
+      <c r="O67">
+        <v>0.93</v>
+      </c>
+      <c r="P67">
+        <v>0.75</v>
+      </c>
+      <c r="Q67">
+        <v>0.66300000000000003</v>
+      </c>
     </row>
     <row r="68" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E68" s="6">
@@ -3912,6 +4413,15 @@
       </c>
       <c r="N68">
         <v>28.62</v>
+      </c>
+      <c r="O68">
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="P68">
+        <v>132.09</v>
+      </c>
+      <c r="Q68">
+        <v>6.09</v>
       </c>
     </row>
     <row r="69" spans="5:18" x14ac:dyDescent="0.25">
@@ -3943,6 +4453,15 @@
       <c r="N69">
         <v>0.52549999999999997</v>
       </c>
+      <c r="O69">
+        <v>0.53290000000000004</v>
+      </c>
+      <c r="P69">
+        <v>0.36770000000000003</v>
+      </c>
+      <c r="Q69">
+        <v>0.17660000000000001</v>
+      </c>
     </row>
     <row r="70" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E70" s="6"/>
@@ -3973,6 +4492,15 @@
       <c r="N70">
         <v>0.2238</v>
       </c>
+      <c r="O70">
+        <v>0.2223</v>
+      </c>
+      <c r="P70">
+        <v>0.31490000000000001</v>
+      </c>
+      <c r="Q70">
+        <v>0.40510000000000002</v>
+      </c>
     </row>
     <row r="71" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E71" s="6"/>
@@ -4003,6 +4531,15 @@
       <c r="N71">
         <v>0.38140000000000002</v>
       </c>
+      <c r="O71">
+        <v>0.38600000000000001</v>
+      </c>
+      <c r="P71">
+        <v>0.40560000000000002</v>
+      </c>
+      <c r="Q71">
+        <v>0.45029999999999998</v>
+      </c>
     </row>
     <row r="72" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E72" s="6"/>
@@ -4033,9 +4570,15 @@
       <c r="N72" s="4">
         <v>0.511598</v>
       </c>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
+      <c r="O72" s="4">
+        <v>0.50812800000000002</v>
+      </c>
+      <c r="P72" s="4">
+        <v>0.719831</v>
+      </c>
+      <c r="Q72" s="4">
+        <v>0.92606599999999994</v>
+      </c>
       <c r="R72" s="4"/>
     </row>
     <row r="73" spans="5:18" x14ac:dyDescent="0.25">
@@ -4067,9 +4610,15 @@
       <c r="N73" s="4">
         <v>0.81552000000000002</v>
       </c>
-      <c r="O73" s="4"/>
-      <c r="P73" s="4"/>
-      <c r="Q73" s="4"/>
+      <c r="O73" s="4">
+        <v>0.82527600000000001</v>
+      </c>
+      <c r="P73" s="4">
+        <v>0.86720799999999998</v>
+      </c>
+      <c r="Q73" s="4">
+        <v>0.96270299999999998</v>
+      </c>
       <c r="R73" s="4"/>
     </row>
     <row r="74" spans="5:18" x14ac:dyDescent="0.25">
@@ -4101,6 +4650,15 @@
       <c r="N74">
         <v>0.69599999999999995</v>
       </c>
+      <c r="O74">
+        <v>0.7</v>
+      </c>
+      <c r="P74">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="Q74">
+        <v>0.47099999999999997</v>
+      </c>
     </row>
     <row r="75" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E75" s="6"/>
@@ -4131,6 +4689,15 @@
       <c r="N75">
         <v>0.68899999999999995</v>
       </c>
+      <c r="O75">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="P75">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="Q75">
+        <v>0.47099999999999997</v>
+      </c>
     </row>
     <row r="76" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E76" s="6"/>
@@ -4161,6 +4728,15 @@
       <c r="N76">
         <v>0.68799999999999994</v>
       </c>
+      <c r="O76">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="P76">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="Q76">
+        <v>0.46200000000000002</v>
+      </c>
     </row>
     <row r="77" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E77" s="6"/>
@@ -4191,6 +4767,15 @@
       <c r="N77">
         <v>0.81399999999999995</v>
       </c>
+      <c r="O77">
+        <v>0.81</v>
+      </c>
+      <c r="P77">
+        <v>0.77</v>
+      </c>
+      <c r="Q77">
+        <v>0.65800000000000003</v>
+      </c>
     </row>
     <row r="78" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E78" s="6">
@@ -4222,6 +4807,15 @@
       </c>
       <c r="N78">
         <v>36.47</v>
+      </c>
+      <c r="O78">
+        <v>5.07</v>
+      </c>
+      <c r="P78">
+        <v>98.41</v>
+      </c>
+      <c r="Q78">
+        <v>12.98</v>
       </c>
     </row>
     <row r="79" spans="5:18" x14ac:dyDescent="0.25">
@@ -4253,6 +4847,15 @@
       <c r="N79">
         <v>0.51829999999999998</v>
       </c>
+      <c r="O79">
+        <v>0.51029999999999998</v>
+      </c>
+      <c r="P79">
+        <v>0.2974</v>
+      </c>
+      <c r="Q79">
+        <v>0.16170000000000001</v>
+      </c>
     </row>
     <row r="80" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E80" s="6"/>
@@ -4283,6 +4886,15 @@
       <c r="N80">
         <v>0.22650000000000001</v>
       </c>
+      <c r="O80">
+        <v>0.22689999999999999</v>
+      </c>
+      <c r="P80">
+        <v>0.34510000000000002</v>
+      </c>
+      <c r="Q80">
+        <v>0.40670000000000001</v>
+      </c>
     </row>
     <row r="81" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E81" s="6"/>
@@ -4313,6 +4925,15 @@
       <c r="N81">
         <v>0.38390000000000002</v>
       </c>
+      <c r="O81">
+        <v>0.40039999999999998</v>
+      </c>
+      <c r="P81">
+        <v>0.42149999999999999</v>
+      </c>
+      <c r="Q81">
+        <v>0.45090000000000002</v>
+      </c>
     </row>
     <row r="82" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E82" s="6"/>
@@ -4343,9 +4964,15 @@
       <c r="N82" s="4">
         <v>0.52044100000000004</v>
       </c>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
+      <c r="O82" s="4">
+        <v>0.52148099999999997</v>
+      </c>
+      <c r="P82" s="4">
+        <v>0.79319899999999999</v>
+      </c>
+      <c r="Q82" s="4">
+        <v>0.93473099999999998</v>
+      </c>
       <c r="R82" s="4"/>
     </row>
     <row r="83" spans="5:18" x14ac:dyDescent="0.25">
@@ -4377,9 +5004,15 @@
       <c r="N83" s="4">
         <v>0.82301899999999995</v>
       </c>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
+      <c r="O83" s="4">
+        <v>0.85851699999999997</v>
+      </c>
+      <c r="P83" s="4">
+        <v>0.90371299999999999</v>
+      </c>
+      <c r="Q83" s="4">
+        <v>0.96660000000000001</v>
+      </c>
       <c r="R83" s="4"/>
     </row>
     <row r="84" spans="5:18" x14ac:dyDescent="0.25">
@@ -4411,6 +5044,15 @@
       <c r="N84">
         <v>0.69499999999999995</v>
       </c>
+      <c r="O84">
+        <v>0.68700000000000006</v>
+      </c>
+      <c r="P84">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="Q84">
+        <v>0.46300000000000002</v>
+      </c>
     </row>
     <row r="85" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E85" s="6"/>
@@ -4441,6 +5083,15 @@
       <c r="N85">
         <v>0.68600000000000005</v>
       </c>
+      <c r="O85">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="P85">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="Q85">
+        <v>0.46700000000000003</v>
+      </c>
     </row>
     <row r="86" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E86" s="6"/>
@@ -4471,6 +5122,15 @@
       <c r="N86">
         <v>0.68700000000000006</v>
       </c>
+      <c r="O86">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="P86">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="Q86">
+        <v>0.45500000000000002</v>
+      </c>
     </row>
     <row r="87" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E87" s="6"/>
@@ -4501,6 +5161,15 @@
       <c r="N87">
         <v>0.80900000000000005</v>
       </c>
+      <c r="O87">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="P87">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="Q87">
+        <v>0.65300000000000002</v>
+      </c>
     </row>
     <row r="88" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E88" s="6">
@@ -4532,6 +5201,15 @@
       </c>
       <c r="N88">
         <v>27.01</v>
+      </c>
+      <c r="O88">
+        <v>4.84</v>
+      </c>
+      <c r="P88">
+        <v>141.52000000000001</v>
+      </c>
+      <c r="Q88">
+        <v>13.11</v>
       </c>
     </row>
     <row r="89" spans="5:18" x14ac:dyDescent="0.25">
@@ -4563,6 +5241,15 @@
       <c r="N89">
         <v>0.53749999999999998</v>
       </c>
+      <c r="O89">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="P89">
+        <v>0.37959999999999999</v>
+      </c>
+      <c r="Q89">
+        <v>0.2011</v>
+      </c>
     </row>
     <row r="90" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E90" s="6"/>
@@ -4593,6 +5280,15 @@
       <c r="N90">
         <v>0.21970000000000001</v>
       </c>
+      <c r="O90">
+        <v>0.22370000000000001</v>
+      </c>
+      <c r="P90">
+        <v>0.30649999999999999</v>
+      </c>
+      <c r="Q90">
+        <v>0.39450000000000002</v>
+      </c>
     </row>
     <row r="91" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E91" s="6"/>
@@ -4623,6 +5319,15 @@
       <c r="N91">
         <v>0.37040000000000001</v>
       </c>
+      <c r="O91">
+        <v>0.37609999999999999</v>
+      </c>
+      <c r="P91">
+        <v>0.40089999999999998</v>
+      </c>
+      <c r="Q91">
+        <v>0.44450000000000001</v>
+      </c>
     </row>
     <row r="92" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E92" s="6"/>
@@ -4653,9 +5358,15 @@
       <c r="N92" s="4">
         <v>0.50331700000000001</v>
       </c>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
+      <c r="O92" s="4">
+        <v>0.51257799999999998</v>
+      </c>
+      <c r="P92" s="4">
+        <v>0.70226999999999995</v>
+      </c>
+      <c r="Q92" s="4">
+        <v>0.90398000000000001</v>
+      </c>
       <c r="R92" s="4"/>
     </row>
     <row r="93" spans="5:18" x14ac:dyDescent="0.25">
@@ -4687,9 +5398,15 @@
       <c r="N93" s="4">
         <v>0.792883</v>
       </c>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
+      <c r="O93" s="4">
+        <v>0.80512099999999998</v>
+      </c>
+      <c r="P93" s="4">
+        <v>0.85830300000000004</v>
+      </c>
+      <c r="Q93" s="4">
+        <v>0.95162500000000005</v>
+      </c>
       <c r="R93" s="4"/>
     </row>
     <row r="94" spans="5:18" x14ac:dyDescent="0.25">
@@ -4721,6 +5438,15 @@
       <c r="N94">
         <v>0.70899999999999996</v>
       </c>
+      <c r="O94">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="P94">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="Q94">
+        <v>0.48299999999999998</v>
+      </c>
     </row>
     <row r="95" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E95" s="6"/>
@@ -4751,6 +5477,15 @@
       <c r="N95">
         <v>0.69799999999999995</v>
       </c>
+      <c r="O95">
+        <v>0.7</v>
+      </c>
+      <c r="P95">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="Q95">
+        <v>0.48799999999999999</v>
+      </c>
     </row>
     <row r="96" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E96" s="6"/>
@@ -4781,6 +5516,15 @@
       <c r="N96">
         <v>0.69799999999999995</v>
       </c>
+      <c r="O96">
+        <v>0.7</v>
+      </c>
+      <c r="P96">
+        <v>0.60199999999999998</v>
+      </c>
+      <c r="Q96">
+        <v>0.47699999999999998</v>
+      </c>
     </row>
     <row r="97" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E97" s="6"/>
@@ -4811,6 +5555,15 @@
       <c r="N97">
         <v>0.82499999999999996</v>
       </c>
+      <c r="O97">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="P97">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="Q97">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="98" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E98" s="6">
@@ -4842,6 +5595,15 @@
       </c>
       <c r="N98">
         <v>37.950000000000003</v>
+      </c>
+      <c r="O98">
+        <v>5.28</v>
+      </c>
+      <c r="P98">
+        <v>106.83</v>
+      </c>
+      <c r="Q98">
+        <v>19.97</v>
       </c>
     </row>
     <row r="99" spans="5:18" x14ac:dyDescent="0.25">
@@ -4873,6 +5635,15 @@
       <c r="N99">
         <v>0.53069999999999995</v>
       </c>
+      <c r="O99">
+        <v>0.52910000000000001</v>
+      </c>
+      <c r="P99">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="Q99">
+        <v>0.18290000000000001</v>
+      </c>
     </row>
     <row r="100" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E100" s="6"/>
@@ -4903,6 +5674,15 @@
       <c r="N100">
         <v>0.22450000000000001</v>
       </c>
+      <c r="O100">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="P100">
+        <v>0.31069999999999998</v>
+      </c>
+      <c r="Q100">
+        <v>0.39860000000000001</v>
+      </c>
     </row>
     <row r="101" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E101" s="6"/>
@@ -4933,6 +5713,15 @@
       <c r="N101">
         <v>0.37919999999999998</v>
       </c>
+      <c r="O101">
+        <v>0.38540000000000002</v>
+      </c>
+      <c r="P101">
+        <v>0.39910000000000001</v>
+      </c>
+      <c r="Q101">
+        <v>0.44690000000000002</v>
+      </c>
     </row>
     <row r="102" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E102" s="6"/>
@@ -4963,9 +5752,15 @@
       <c r="N102" s="4">
         <v>0.51528399999999996</v>
       </c>
-      <c r="O102" s="4"/>
-      <c r="P102" s="4"/>
-      <c r="Q102" s="4"/>
+      <c r="O102" s="4">
+        <v>0.52107199999999998</v>
+      </c>
+      <c r="P102" s="4">
+        <v>0.71314999999999995</v>
+      </c>
+      <c r="Q102" s="4">
+        <v>0.91493400000000003</v>
+      </c>
       <c r="R102" s="4"/>
     </row>
     <row r="103" spans="5:18" x14ac:dyDescent="0.25">
@@ -4997,9 +5792,15 @@
       <c r="N103" s="4">
         <v>0.812384</v>
       </c>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
+      <c r="O103" s="4">
+        <v>0.82581800000000005</v>
+      </c>
+      <c r="P103" s="4">
+        <v>0.85519800000000001</v>
+      </c>
+      <c r="Q103" s="4">
+        <v>0.95752700000000002</v>
+      </c>
       <c r="R103" s="4"/>
     </row>
     <row r="104" spans="5:18" x14ac:dyDescent="0.25">
@@ -5031,6 +5832,15 @@
       <c r="N104">
         <v>0.70399999999999996</v>
       </c>
+      <c r="O104">
+        <v>0.70099999999999996</v>
+      </c>
+      <c r="P104">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="Q104">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="105" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E105" s="6"/>
@@ -5061,6 +5871,15 @@
       <c r="N105">
         <v>0.69399999999999995</v>
       </c>
+      <c r="O105">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="P105">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="Q105">
+        <v>0.48</v>
+      </c>
     </row>
     <row r="106" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E106" s="6"/>
@@ -5091,6 +5910,15 @@
       <c r="N106">
         <v>0.69299999999999995</v>
       </c>
+      <c r="O106">
+        <v>0.69299999999999995</v>
+      </c>
+      <c r="P106">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="Q106">
+        <v>0.46400000000000002</v>
+      </c>
     </row>
     <row r="107" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E107" s="6"/>
@@ -5121,6 +5949,15 @@
       <c r="N107">
         <v>0.81799999999999995</v>
       </c>
+      <c r="O107">
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="P107">
+        <v>0.78300000000000003</v>
+      </c>
+      <c r="Q107">
+        <v>0.66900000000000004</v>
+      </c>
     </row>
     <row r="108" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E108" s="6">
@@ -5152,6 +5989,15 @@
       </c>
       <c r="N108">
         <v>34.130000000000003</v>
+      </c>
+      <c r="O108">
+        <v>2.29</v>
+      </c>
+      <c r="P108">
+        <v>100.65</v>
+      </c>
+      <c r="Q108">
+        <v>5.31</v>
       </c>
     </row>
     <row r="109" spans="5:18" x14ac:dyDescent="0.25">
@@ -5183,6 +6029,15 @@
       <c r="N109">
         <v>0.50409999999999999</v>
       </c>
+      <c r="O109">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="P109">
+        <v>0.3271</v>
+      </c>
+      <c r="Q109">
+        <v>0.1414</v>
+      </c>
     </row>
     <row r="110" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E110" s="6"/>
@@ -5213,6 +6068,15 @@
       <c r="N110">
         <v>0.22839999999999999</v>
       </c>
+      <c r="O110">
+        <v>0.2301</v>
+      </c>
+      <c r="P110">
+        <v>0.3306</v>
+      </c>
+      <c r="Q110">
+        <v>0.40510000000000002</v>
+      </c>
     </row>
     <row r="111" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E111" s="6"/>
@@ -5243,6 +6107,15 @@
       <c r="N111">
         <v>0.37880000000000003</v>
       </c>
+      <c r="O111">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="P111">
+        <v>0.41310000000000002</v>
+      </c>
+      <c r="Q111">
+        <v>0.44979999999999998</v>
+      </c>
     </row>
     <row r="112" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E112" s="6"/>
@@ -5273,9 +6146,15 @@
       <c r="N112" s="4">
         <v>0.52374399999999999</v>
       </c>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
+      <c r="O112" s="4">
+        <v>0.52769900000000003</v>
+      </c>
+      <c r="P112" s="4">
+        <v>0.75815999999999995</v>
+      </c>
+      <c r="Q112" s="4">
+        <v>0.92907799999999996</v>
+      </c>
       <c r="R112" s="4"/>
     </row>
     <row r="113" spans="5:18" x14ac:dyDescent="0.25">
@@ -5307,9 +6186,15 @@
       <c r="N113" s="4">
         <v>0.811338</v>
       </c>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
+      <c r="O113" s="4">
+        <v>0.83050100000000004</v>
+      </c>
+      <c r="P113" s="4">
+        <v>0.88458300000000001</v>
+      </c>
+      <c r="Q113" s="4">
+        <v>0.96329699999999996</v>
+      </c>
       <c r="R113" s="4"/>
     </row>
     <row r="114" spans="5:18" x14ac:dyDescent="0.25">
@@ -5341,6 +6226,15 @@
       <c r="N114">
         <v>0.68300000000000005</v>
       </c>
+      <c r="O114">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="P114">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="Q114">
+        <v>0.443</v>
+      </c>
     </row>
     <row r="115" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E115" s="6"/>
@@ -5371,6 +6265,15 @@
       <c r="N115">
         <v>0.67600000000000005</v>
       </c>
+      <c r="O115">
+        <v>0.68</v>
+      </c>
+      <c r="P115">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="Q115">
+        <v>0.45900000000000002</v>
+      </c>
     </row>
     <row r="116" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E116" s="6"/>
@@ -5401,6 +6304,15 @@
       <c r="N116">
         <v>0.67800000000000005</v>
       </c>
+      <c r="O116">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="P116">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="Q116">
+        <v>0.42699999999999999</v>
+      </c>
     </row>
     <row r="117" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E117" s="6"/>
@@ -5431,6 +6343,15 @@
       <c r="N117">
         <v>0.81499999999999995</v>
       </c>
+      <c r="O117">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="P117">
+        <v>0.754</v>
+      </c>
+      <c r="Q117">
+        <v>0.65600000000000003</v>
+      </c>
     </row>
     <row r="118" spans="5:18" x14ac:dyDescent="0.25">
       <c r="E118" s="7" t="s">
@@ -5471,17 +6392,17 @@
         <f t="shared" si="0"/>
         <v>42.527272727272731</v>
       </c>
-      <c r="O118" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P118" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q118" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="O118">
+        <f t="shared" si="0"/>
+        <v>5.668181818181818</v>
+      </c>
+      <c r="P118">
+        <f t="shared" si="0"/>
+        <v>137.608</v>
+      </c>
+      <c r="Q118">
+        <f t="shared" si="0"/>
+        <v>14.389999999999999</v>
       </c>
     </row>
     <row r="119" spans="5:18" x14ac:dyDescent="0.25">
@@ -5521,17 +6442,17 @@
         <f t="shared" si="0"/>
         <v>0.5717545454545454</v>
       </c>
-      <c r="O119" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P119" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q119" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="O119">
+        <f t="shared" si="0"/>
+        <v>0.56682727272727274</v>
+      </c>
+      <c r="P119">
+        <f t="shared" si="0"/>
+        <v>0.37401818181818186</v>
+      </c>
+      <c r="Q119">
+        <f t="shared" si="0"/>
+        <v>0.1941545454545455</v>
       </c>
     </row>
     <row r="120" spans="5:18" x14ac:dyDescent="0.25">
@@ -5571,17 +6492,17 @@
         <f t="shared" si="0"/>
         <v>0.20487272727272729</v>
       </c>
-      <c r="O120" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P120" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q120" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="O120">
+        <f t="shared" si="0"/>
+        <v>0.20824545454545451</v>
+      </c>
+      <c r="P120">
+        <f t="shared" si="0"/>
+        <v>0.31919090909090914</v>
+      </c>
+      <c r="Q120">
+        <f t="shared" si="0"/>
+        <v>0.40187272727272721</v>
       </c>
     </row>
     <row r="121" spans="5:18" x14ac:dyDescent="0.25">
@@ -5621,17 +6542,17 @@
         <f t="shared" si="0"/>
         <v>0.36372727272727273</v>
       </c>
-      <c r="O121" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P121" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q121" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="O121">
+        <f t="shared" si="0"/>
+        <v>0.37376363636363641</v>
+      </c>
+      <c r="P121">
+        <f t="shared" si="0"/>
+        <v>0.40585454545454547</v>
+      </c>
+      <c r="Q121">
+        <f t="shared" si="0"/>
+        <v>0.44839090909090906</v>
       </c>
     </row>
     <row r="122" spans="5:18" x14ac:dyDescent="0.25">
@@ -5671,17 +6592,17 @@
         <f t="shared" si="0"/>
         <v>0.46670863636363635</v>
       </c>
-      <c r="O122" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P122" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q122" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="O122" s="4">
+        <f t="shared" si="0"/>
+        <v>0.47442690909090912</v>
+      </c>
+      <c r="P122" s="4">
+        <f t="shared" si="0"/>
+        <v>0.7274308181818181</v>
+      </c>
+      <c r="Q122" s="4">
+        <f t="shared" si="0"/>
+        <v>0.91575227272727278</v>
       </c>
     </row>
     <row r="123" spans="5:18" x14ac:dyDescent="0.25">
@@ -5721,17 +6642,17 @@
         <f t="shared" si="0"/>
         <v>0.77641318181818175</v>
       </c>
-      <c r="O123" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P123" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q123" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="O123" s="4">
+        <f t="shared" si="0"/>
+        <v>0.79786645454545457</v>
+      </c>
+      <c r="P123" s="4">
+        <f t="shared" si="0"/>
+        <v>0.86647436363636354</v>
+      </c>
+      <c r="Q123" s="4">
+        <f t="shared" si="0"/>
+        <v>0.95722390909090926</v>
       </c>
     </row>
     <row r="124" spans="5:18" x14ac:dyDescent="0.25">
@@ -5771,17 +6692,17 @@
         <f t="shared" si="0"/>
         <v>0.72654545454545449</v>
       </c>
-      <c r="O124" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P124" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q124" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="O124">
+        <f t="shared" si="0"/>
+        <v>0.72136363636363632</v>
+      </c>
+      <c r="P124">
+        <f t="shared" si="0"/>
+        <v>0.61245454545454547</v>
+      </c>
+      <c r="Q124">
+        <f t="shared" si="0"/>
+        <v>0.47354545454545444</v>
       </c>
     </row>
     <row r="125" spans="5:18" x14ac:dyDescent="0.25">
@@ -5821,17 +6742,17 @@
         <f t="shared" si="0"/>
         <v>0.71872727272727266</v>
       </c>
-      <c r="O125" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P125" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q125" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="O125">
+        <f t="shared" si="0"/>
+        <v>0.71536363636363631</v>
+      </c>
+      <c r="P125">
+        <f t="shared" si="0"/>
+        <v>0.59227272727272728</v>
+      </c>
+      <c r="Q125">
+        <f t="shared" si="0"/>
+        <v>0.47863636363636369</v>
       </c>
     </row>
     <row r="126" spans="5:18" x14ac:dyDescent="0.25">
@@ -5871,17 +6792,17 @@
         <f t="shared" si="0"/>
         <v>0.719090909090909</v>
       </c>
-      <c r="O126" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P126" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q126" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="O126">
+        <f t="shared" si="0"/>
+        <v>0.71545454545454545</v>
+      </c>
+      <c r="P126">
+        <f t="shared" si="0"/>
+        <v>0.59309090909090922</v>
+      </c>
+      <c r="Q126">
+        <f t="shared" si="0"/>
+        <v>0.46863636363636368</v>
       </c>
     </row>
     <row r="127" spans="5:18" x14ac:dyDescent="0.25">
@@ -5921,26 +6842,21 @@
         <f t="shared" si="0"/>
         <v>0.83745454545454545</v>
       </c>
-      <c r="O127" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P127" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q127" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="O127">
+        <f t="shared" si="0"/>
+        <v>0.82790909090909082</v>
+      </c>
+      <c r="P127">
+        <f t="shared" si="0"/>
+        <v>0.77118181818181819</v>
+      </c>
+      <c r="Q127">
+        <f t="shared" si="0"/>
+        <v>0.66863636363636358</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="E8:E17"/>
-    <mergeCell ref="E18:E27"/>
-    <mergeCell ref="E28:E37"/>
-    <mergeCell ref="E38:E47"/>
-    <mergeCell ref="E108:E117"/>
     <mergeCell ref="E118:E127"/>
     <mergeCell ref="E48:E57"/>
     <mergeCell ref="E58:E67"/>
@@ -5948,6 +6864,11 @@
     <mergeCell ref="E78:E87"/>
     <mergeCell ref="E88:E97"/>
     <mergeCell ref="E98:E107"/>
+    <mergeCell ref="E8:E17"/>
+    <mergeCell ref="E18:E27"/>
+    <mergeCell ref="E28:E37"/>
+    <mergeCell ref="E38:E47"/>
+    <mergeCell ref="E108:E117"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
